--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -16241,7 +16241,7 @@
 Будь ласка, скористайтеся '%1$s', щоб повідомити про помилку</t>
   </si>
   <si>
-    <t>解密数据库失败。请用 '%1$s'报告错误</t>
+    <t>数据库解密失败。 请用  '%1$s' 报告错误</t>
   </si>
   <si>
     <t>biometrics_setup_failure_encrypt</t>
@@ -16270,7 +16270,7 @@
 Будь ласка, скористайтеся '%1$s', щоб повідомити про помилку</t>
   </si>
   <si>
-    <t>加密数据库失败。请用 '%1$s'报告错误</t>
+    <t>数据库加密失败。请用  '%1$s' 报告错误</t>
   </si>
   <si>
     <t>biometrics_setup_success</t>
@@ -18117,7 +18117,7 @@
 Будь ласка, скористайтеся кнопкою '%1$s', щоб повідомити про помилку</t>
   </si>
   <si>
-    <t>导出备份不幸失败。请用'%1$s'按钮报告崩溃</t>
+    <t>导出备份不幸失败。请用  '%1$s' 按钮报告崩溃</t>
   </si>
   <si>
     <t>crash_export_backup_message</t>
@@ -18146,7 +18146,7 @@
 Це може не спрацювати, якщо збій призвів до пошкодження даних. У такому разі, будь ласка, скористайтеся кнопкою '%2$s', щоб повідомити про помилку</t>
   </si>
   <si>
-    <t>你可以单击 '%1$s' 试着创建笔记的备份。假如崩溃导致数据损坏，备份可能失败。如果是那样，请用 '%1$s' 按钮报告崩溃</t>
+    <t>你可以单击  '%1$s' 试着创建笔记备份。如果崩溃造成数据损坏/破坏，创建备份可能失败。如果出现这种情况，用  '%2$s' 按钮报告崩溃</t>
   </si>
   <si>
     <t>crash_message</t>
@@ -18196,7 +18196,7 @@
 Перепрошуємо за незручності.</t>
   </si>
   <si>
-    <t>发生了意外错误。抱歉造成不便</t>
+    <t>发生了意外错误。抱歉造成不变</t>
   </si>
   <si>
     <t>發生意外錯誤。 抱歉造成不便。</t>
@@ -21379,7 +21379,7 @@
 Якщо у вас уже є файл ENEX, натисніть «Імпортувати» та виберіть його.</t>
   </si>
   <si>
-    <t>要从Evernote导入你的笔记，你必须将你的Evernote 笔记本以 ENEX 格式导出。单击”帮助“获取更多信息。如果你已经有 ENEX 文件，单击”导入“并选中它</t>
+    <t>为了从Evernote导入你的笔记，你必须将你的Evernote 笔记本以 ENEX 格式导出。单击”帮助“获取更多信息。如果你已经有 ENEX 文件，单击”导入“并选中它</t>
   </si>
   <si>
     <t>為了從 Evernote 匯入您的筆記，您必須將您的 Evernote筆記匯出為 ENEX。點擊"幫助"以獲取更多資訊。 如果您已經有 ENEX 文件，請點擊“匯入”並選擇它。</t>
@@ -25651,7 +25651,7 @@
     <t>%1$s' не існує</t>
   </si>
   <si>
-    <t>%1$s'不存在</t>
+    <t>%1$s' 不存在</t>
   </si>
   <si>
     <t>note</t>
@@ -26296,7 +26296,7 @@
     <t>Файли Markdown/Plain Text</t>
   </si>
   <si>
-    <t>纯文本文件</t>
+    <t>Markdown/纯文本文件</t>
   </si>
   <si>
     <t>Markdown/純文字檔案</t>
@@ -27085,7 +27085,7 @@
     <t>Налаштувати повторення</t>
   </si>
   <si>
-    <t>自定义重复</t>
+    <t>定制重复</t>
   </si>
   <si>
     <t>repetition_value_hint</t>
@@ -27192,7 +27192,7 @@
     <t>Журнали збоїв занадто довгі для автоматичного заповнення форми GitHub, тому їх було скопійовано в буфер обміну. Коли ви натиснете '%1$s', у браузері відкриється сторінка для створення повідомлення про помилку в GitHub. Важливо, щоб ви вставили автоматично скопійовані журнали у поле '(Optional) Relevant log output' field.</t>
   </si>
   <si>
-    <t>崩溃日志过长无法用它自动预填充 Github issue，因此崩溃日志已复制到剪贴板中。单击 '%1$s' 时，浏览器会打开来创建崩溃问题的 Gihub issue。重要的是将自动复制的崩溃日志粘贴到 Github issue 的“（可选）相关日志输出”信息栏中。</t>
+    <t>崩溃日志过长无法自动用它预填充 Github Issue，因此已复制崩溃日志到剪贴板。单击  '%1$s' 时，程序会打开浏览器创建崩溃问题的 Github Issue。重要：请将自动复制的崩溃日志粘贴入 Github Issue 的  '(Optional) Relevant log output' 字段。</t>
   </si>
   <si>
     <t>report_crash</t>
@@ -27232,7 +27232,7 @@
     <t>Повідомити про помилку з журналами збоїв</t>
   </si>
   <si>
-    <t>报告错误，附带崩溃日志</t>
+    <t>报告问题/错误</t>
   </si>
   <si>
     <t>使用崩潰日誌報告錯誤</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$386</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -15380,7 +15380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A360" authorId="0">
+    <comment ref="A361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15392,7 +15392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B360" authorId="0">
+    <comment ref="B361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15404,7 +15404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C360" authorId="0">
+    <comment ref="C361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15416,7 +15416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D360" authorId="0">
+    <comment ref="D361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15428,7 +15428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E360" authorId="0">
+    <comment ref="E361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15440,7 +15440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F360" authorId="0">
+    <comment ref="F361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15452,7 +15452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G360" authorId="0">
+    <comment ref="G361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15464,7 +15464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H360" authorId="0">
+    <comment ref="H361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15476,7 +15476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I360" authorId="0">
+    <comment ref="I361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15488,7 +15488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J360" authorId="0">
+    <comment ref="J361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15500,7 +15500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K360" authorId="0">
+    <comment ref="K361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15512,7 +15512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L360" authorId="0">
+    <comment ref="L361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15524,7 +15524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M360" authorId="0">
+    <comment ref="M361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15536,7 +15536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N360" authorId="0">
+    <comment ref="N361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15548,7 +15548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O360" authorId="0">
+    <comment ref="O361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15560,7 +15560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P360" authorId="0">
+    <comment ref="P361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15572,7 +15572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q360" authorId="0">
+    <comment ref="Q361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15584,7 +15584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R360" authorId="0">
+    <comment ref="R361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15596,7 +15596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S360" authorId="0">
+    <comment ref="S361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15608,7 +15608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T360" authorId="0">
+    <comment ref="T361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15620,7 +15620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U360" authorId="0">
+    <comment ref="U361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15632,7 +15632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V360" authorId="0">
+    <comment ref="V361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15644,7 +15644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W360" authorId="0">
+    <comment ref="W361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15656,7 +15656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X360" authorId="0">
+    <comment ref="X361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15668,7 +15668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y360" authorId="0">
+    <comment ref="Y361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15680,7 +15680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z360" authorId="0">
+    <comment ref="Z361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15692,7 +15692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA360" authorId="0">
+    <comment ref="AA361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15704,7 +15704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB360" authorId="0">
+    <comment ref="AB361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15716,7 +15716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC360" authorId="0">
+    <comment ref="AC361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15728,7 +15728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD360" authorId="0">
+    <comment ref="AD361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15740,7 +15740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE360" authorId="0">
+    <comment ref="AE361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15752,7 +15752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF360" authorId="0">
+    <comment ref="AF361" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15764,7 +15764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A361" authorId="0">
+    <comment ref="A362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15776,7 +15776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B361" authorId="0">
+    <comment ref="B362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15788,7 +15788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C361" authorId="0">
+    <comment ref="C362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15800,7 +15800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D361" authorId="0">
+    <comment ref="D362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15812,7 +15812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E361" authorId="0">
+    <comment ref="E362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15824,7 +15824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F361" authorId="0">
+    <comment ref="F362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15836,7 +15836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G361" authorId="0">
+    <comment ref="G362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15848,7 +15848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H361" authorId="0">
+    <comment ref="H362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15860,7 +15860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I361" authorId="0">
+    <comment ref="I362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15872,7 +15872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J361" authorId="0">
+    <comment ref="J362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15884,7 +15884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K361" authorId="0">
+    <comment ref="K362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15896,7 +15896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L361" authorId="0">
+    <comment ref="L362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15908,7 +15908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M361" authorId="0">
+    <comment ref="M362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15920,7 +15920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N361" authorId="0">
+    <comment ref="N362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15932,7 +15932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O361" authorId="0">
+    <comment ref="O362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15944,7 +15944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P361" authorId="0">
+    <comment ref="P362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15956,7 +15956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q361" authorId="0">
+    <comment ref="Q362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15968,7 +15968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R361" authorId="0">
+    <comment ref="R362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15980,7 +15980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S361" authorId="0">
+    <comment ref="S362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15992,7 +15992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T361" authorId="0">
+    <comment ref="T362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16004,7 +16004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U361" authorId="0">
+    <comment ref="U362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16016,7 +16016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V361" authorId="0">
+    <comment ref="V362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16028,7 +16028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W361" authorId="0">
+    <comment ref="W362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16040,7 +16040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X361" authorId="0">
+    <comment ref="X362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16052,7 +16052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y361" authorId="0">
+    <comment ref="Y362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16064,7 +16064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z361" authorId="0">
+    <comment ref="Z362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16076,7 +16076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA361" authorId="0">
+    <comment ref="AA362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16088,7 +16088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB361" authorId="0">
+    <comment ref="AB362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16100,7 +16100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC361" authorId="0">
+    <comment ref="AC362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16112,7 +16112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD361" authorId="0">
+    <comment ref="AD362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16124,7 +16124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE361" authorId="0">
+    <comment ref="AE362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16136,7 +16136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF361" authorId="0">
+    <comment ref="AF362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16148,7 +16148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A364" authorId="0">
+    <comment ref="A365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16160,7 +16160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B364" authorId="0">
+    <comment ref="B365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16172,7 +16172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C364" authorId="0">
+    <comment ref="C365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16184,7 +16184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D364" authorId="0">
+    <comment ref="D365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16196,7 +16196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E364" authorId="0">
+    <comment ref="E365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16208,7 +16208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F364" authorId="0">
+    <comment ref="F365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16220,7 +16220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G364" authorId="0">
+    <comment ref="G365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16232,7 +16232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H364" authorId="0">
+    <comment ref="H365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16244,7 +16244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I364" authorId="0">
+    <comment ref="I365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16256,7 +16256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J364" authorId="0">
+    <comment ref="J365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16268,7 +16268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K364" authorId="0">
+    <comment ref="K365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16280,7 +16280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L364" authorId="0">
+    <comment ref="L365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16292,7 +16292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M364" authorId="0">
+    <comment ref="M365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16304,7 +16304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N364" authorId="0">
+    <comment ref="N365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16316,7 +16316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O364" authorId="0">
+    <comment ref="O365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16328,7 +16328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P364" authorId="0">
+    <comment ref="P365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16340,7 +16340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q364" authorId="0">
+    <comment ref="Q365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16352,7 +16352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R364" authorId="0">
+    <comment ref="R365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16364,7 +16364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S364" authorId="0">
+    <comment ref="S365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16376,7 +16376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T364" authorId="0">
+    <comment ref="T365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16388,7 +16388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U364" authorId="0">
+    <comment ref="U365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16400,7 +16400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V364" authorId="0">
+    <comment ref="V365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16412,7 +16412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W364" authorId="0">
+    <comment ref="W365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16424,7 +16424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X364" authorId="0">
+    <comment ref="X365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16436,7 +16436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y364" authorId="0">
+    <comment ref="Y365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16448,7 +16448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z364" authorId="0">
+    <comment ref="Z365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16460,7 +16460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA364" authorId="0">
+    <comment ref="AA365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16472,7 +16472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB364" authorId="0">
+    <comment ref="AB365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16484,7 +16484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC364" authorId="0">
+    <comment ref="AC365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16496,7 +16496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD364" authorId="0">
+    <comment ref="AD365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16508,7 +16508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE364" authorId="0">
+    <comment ref="AE365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16520,7 +16520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF364" authorId="0">
+    <comment ref="AF365" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16532,7 +16532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A365" authorId="0">
+    <comment ref="A366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16544,7 +16544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B365" authorId="0">
+    <comment ref="B366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16556,7 +16556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C365" authorId="0">
+    <comment ref="C366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16568,7 +16568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D365" authorId="0">
+    <comment ref="D366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16580,7 +16580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E365" authorId="0">
+    <comment ref="E366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16592,7 +16592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F365" authorId="0">
+    <comment ref="F366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16604,7 +16604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G365" authorId="0">
+    <comment ref="G366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16616,7 +16616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H365" authorId="0">
+    <comment ref="H366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16628,7 +16628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I365" authorId="0">
+    <comment ref="I366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16640,7 +16640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J365" authorId="0">
+    <comment ref="J366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16652,7 +16652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K365" authorId="0">
+    <comment ref="K366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16664,7 +16664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L365" authorId="0">
+    <comment ref="L366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16676,7 +16676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M365" authorId="0">
+    <comment ref="M366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16688,7 +16688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N365" authorId="0">
+    <comment ref="N366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16700,7 +16700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O365" authorId="0">
+    <comment ref="O366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16712,7 +16712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P365" authorId="0">
+    <comment ref="P366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16724,7 +16724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q365" authorId="0">
+    <comment ref="Q366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16736,7 +16736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R365" authorId="0">
+    <comment ref="R366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16748,7 +16748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S365" authorId="0">
+    <comment ref="S366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16760,7 +16760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T365" authorId="0">
+    <comment ref="T366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16772,7 +16772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U365" authorId="0">
+    <comment ref="U366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16784,7 +16784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V365" authorId="0">
+    <comment ref="V366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16796,7 +16796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W365" authorId="0">
+    <comment ref="W366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16808,7 +16808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X365" authorId="0">
+    <comment ref="X366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16820,7 +16820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y365" authorId="0">
+    <comment ref="Y366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16832,7 +16832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z365" authorId="0">
+    <comment ref="Z366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16844,7 +16844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA365" authorId="0">
+    <comment ref="AA366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16856,7 +16856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB365" authorId="0">
+    <comment ref="AB366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16868,7 +16868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC365" authorId="0">
+    <comment ref="AC366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16880,7 +16880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD365" authorId="0">
+    <comment ref="AD366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16892,7 +16892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE365" authorId="0">
+    <comment ref="AE366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16904,7 +16904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF365" authorId="0">
+    <comment ref="AF366" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16943,7 +16943,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12320" uniqueCount="5684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12352" uniqueCount="5686">
   <si>
     <t>Key</t>
   </si>
@@ -32434,6 +32434,12 @@
   </si>
   <si>
     <t>刪除線</t>
+  </si>
+  <si>
+    <t>super_dark</t>
+  </si>
+  <si>
+    <t>Super Dark</t>
   </si>
   <si>
     <t>take_note</t>
@@ -39952,7 +39958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF385"/>
+  <dimension ref="A1:AF386"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -74177,1077 +74183,1077 @@
       <c r="C350" t="s" s="1">
         <v>5108</v>
       </c>
-      <c r="D350" t="s" s="1">
-        <v>5109</v>
-      </c>
-      <c r="E350" t="s" s="1">
-        <v>5110</v>
-      </c>
-      <c r="F350" t="s" s="1">
-        <v>5111</v>
-      </c>
-      <c r="G350" t="s" s="1">
-        <v>5112</v>
-      </c>
-      <c r="H350" t="s" s="1">
-        <v>5113</v>
-      </c>
-      <c r="I350" t="s" s="1">
-        <v>5114</v>
-      </c>
-      <c r="J350" t="s" s="1">
-        <v>5115</v>
-      </c>
-      <c r="K350" t="s" s="1">
-        <v>5116</v>
-      </c>
-      <c r="L350" t="s" s="1">
-        <v>5117</v>
-      </c>
-      <c r="M350" t="s" s="1">
-        <v>5118</v>
-      </c>
-      <c r="N350" t="s" s="1">
-        <v>3932</v>
-      </c>
-      <c r="O350" t="s" s="1">
-        <v>3933</v>
-      </c>
-      <c r="P350" t="s" s="1">
-        <v>5119</v>
-      </c>
-      <c r="Q350" t="s" s="1">
-        <v>5120</v>
-      </c>
-      <c r="R350" t="s" s="1">
-        <v>5121</v>
-      </c>
-      <c r="S350" t="s" s="1">
-        <v>5122</v>
-      </c>
-      <c r="T350" t="s" s="1">
-        <v>5123</v>
-      </c>
-      <c r="U350" t="s" s="1">
-        <v>5124</v>
-      </c>
-      <c r="V350" t="s" s="1">
-        <v>5125</v>
-      </c>
-      <c r="W350" t="s" s="1">
-        <v>5126</v>
-      </c>
-      <c r="X350" t="s" s="1">
-        <v>5127</v>
-      </c>
-      <c r="Y350" t="s" s="1">
-        <v>5128</v>
-      </c>
-      <c r="Z350" t="s" s="1">
-        <v>5129</v>
-      </c>
-      <c r="AA350" t="s" s="1">
-        <v>5130</v>
-      </c>
-      <c r="AB350" t="s" s="1">
-        <v>5131</v>
-      </c>
-      <c r="AC350" t="s" s="1">
-        <v>5132</v>
-      </c>
-      <c r="AD350" t="s" s="1">
-        <v>3944</v>
-      </c>
-      <c r="AE350" t="s" s="1">
-        <v>5133</v>
-      </c>
-      <c r="AF350" t="s" s="1">
-        <v>3946</v>
+      <c r="D350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="1">
-        <v>5134</v>
+        <v>5109</v>
       </c>
       <c r="B351" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C351" t="s" s="1">
+        <v>5110</v>
+      </c>
+      <c r="D351" t="s" s="1">
+        <v>5111</v>
+      </c>
+      <c r="E351" t="s" s="1">
+        <v>5112</v>
+      </c>
+      <c r="F351" t="s" s="1">
+        <v>5113</v>
+      </c>
+      <c r="G351" t="s" s="1">
+        <v>5114</v>
+      </c>
+      <c r="H351" t="s" s="1">
+        <v>5115</v>
+      </c>
+      <c r="I351" t="s" s="1">
+        <v>5116</v>
+      </c>
+      <c r="J351" t="s" s="1">
+        <v>5117</v>
+      </c>
+      <c r="K351" t="s" s="1">
+        <v>5118</v>
+      </c>
+      <c r="L351" t="s" s="1">
+        <v>5119</v>
+      </c>
+      <c r="M351" t="s" s="1">
+        <v>5120</v>
+      </c>
+      <c r="N351" t="s" s="1">
+        <v>3932</v>
+      </c>
+      <c r="O351" t="s" s="1">
+        <v>3933</v>
+      </c>
+      <c r="P351" t="s" s="1">
+        <v>5121</v>
+      </c>
+      <c r="Q351" t="s" s="1">
+        <v>5122</v>
+      </c>
+      <c r="R351" t="s" s="1">
+        <v>5123</v>
+      </c>
+      <c r="S351" t="s" s="1">
+        <v>5124</v>
+      </c>
+      <c r="T351" t="s" s="1">
+        <v>5125</v>
+      </c>
+      <c r="U351" t="s" s="1">
+        <v>5126</v>
+      </c>
+      <c r="V351" t="s" s="1">
+        <v>5127</v>
+      </c>
+      <c r="W351" t="s" s="1">
+        <v>5128</v>
+      </c>
+      <c r="X351" t="s" s="1">
+        <v>5129</v>
+      </c>
+      <c r="Y351" t="s" s="1">
+        <v>5130</v>
+      </c>
+      <c r="Z351" t="s" s="1">
+        <v>5131</v>
+      </c>
+      <c r="AA351" t="s" s="1">
+        <v>5132</v>
+      </c>
+      <c r="AB351" t="s" s="1">
+        <v>5133</v>
+      </c>
+      <c r="AC351" t="s" s="1">
+        <v>5134</v>
+      </c>
+      <c r="AD351" t="s" s="1">
+        <v>3944</v>
+      </c>
+      <c r="AE351" t="s" s="1">
         <v>5135</v>
       </c>
-      <c r="D351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E351" t="s" s="1">
-        <v>5136</v>
-      </c>
-      <c r="F351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G351" t="s" s="1">
-        <v>5137</v>
-      </c>
-      <c r="H351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I351" t="s" s="1">
-        <v>5138</v>
-      </c>
-      <c r="J351" t="s" s="1">
-        <v>5139</v>
-      </c>
-      <c r="K351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M351" t="s" s="1">
-        <v>5140</v>
-      </c>
-      <c r="N351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q351" t="s" s="1">
-        <v>5141</v>
-      </c>
-      <c r="R351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S351" t="s" s="1">
-        <v>5142</v>
-      </c>
-      <c r="T351" t="s" s="1">
-        <v>5143</v>
-      </c>
-      <c r="U351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V351" t="s" s="1">
-        <v>5144</v>
-      </c>
-      <c r="W351" t="s" s="1">
-        <v>5145</v>
-      </c>
-      <c r="X351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC351" t="s" s="1">
-        <v>5146</v>
-      </c>
-      <c r="AD351" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE351" t="s" s="1">
-        <v>5147</v>
-      </c>
       <c r="AF351" t="s" s="1">
-        <v>5148</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="1">
-        <v>5149</v>
+        <v>5136</v>
       </c>
       <c r="B352" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C352" t="s" s="1">
+        <v>5137</v>
+      </c>
+      <c r="D352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E352" t="s" s="1">
+        <v>5138</v>
+      </c>
+      <c r="F352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G352" t="s" s="1">
+        <v>5139</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I352" t="s" s="1">
+        <v>5140</v>
+      </c>
+      <c r="J352" t="s" s="1">
+        <v>5141</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M352" t="s" s="1">
+        <v>5142</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q352" t="s" s="1">
+        <v>5143</v>
+      </c>
+      <c r="R352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S352" t="s" s="1">
+        <v>5144</v>
+      </c>
+      <c r="T352" t="s" s="1">
+        <v>5145</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V352" t="s" s="1">
+        <v>5146</v>
+      </c>
+      <c r="W352" t="s" s="1">
+        <v>5147</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC352" t="s" s="1">
+        <v>5148</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE352" t="s" s="1">
+        <v>5149</v>
+      </c>
+      <c r="AF352" t="s" s="1">
         <v>5150</v>
-      </c>
-      <c r="D352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E352" t="s" s="1">
-        <v>5151</v>
-      </c>
-      <c r="F352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G352" t="s" s="1">
-        <v>5152</v>
-      </c>
-      <c r="H352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I352" t="s" s="1">
-        <v>5153</v>
-      </c>
-      <c r="J352" t="s" s="1">
-        <v>5154</v>
-      </c>
-      <c r="K352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M352" t="s" s="1">
-        <v>5155</v>
-      </c>
-      <c r="N352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O352" t="s" s="1">
-        <v>5156</v>
-      </c>
-      <c r="P352" t="s" s="1">
-        <v>5157</v>
-      </c>
-      <c r="Q352" t="s" s="1">
-        <v>5158</v>
-      </c>
-      <c r="R352" t="s" s="1">
-        <v>5159</v>
-      </c>
-      <c r="S352" t="s" s="1">
-        <v>5160</v>
-      </c>
-      <c r="T352" t="s" s="1">
-        <v>5153</v>
-      </c>
-      <c r="U352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V352" t="s" s="1">
-        <v>5161</v>
-      </c>
-      <c r="W352" t="s" s="1">
-        <v>5162</v>
-      </c>
-      <c r="X352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y352" t="s" s="1">
-        <v>5163</v>
-      </c>
-      <c r="Z352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB352" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC352" t="s" s="1">
-        <v>5164</v>
-      </c>
-      <c r="AD352" t="s" s="1">
-        <v>5165</v>
-      </c>
-      <c r="AE352" t="s" s="1">
-        <v>5166</v>
-      </c>
-      <c r="AF352" t="s" s="1">
-        <v>5167</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="1">
-        <v>5168</v>
+        <v>5151</v>
       </c>
       <c r="B353" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C353" t="s" s="1">
+        <v>5152</v>
+      </c>
+      <c r="D353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E353" t="s" s="1">
+        <v>5153</v>
+      </c>
+      <c r="F353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G353" t="s" s="1">
+        <v>5154</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I353" t="s" s="1">
+        <v>5155</v>
+      </c>
+      <c r="J353" t="s" s="1">
+        <v>5156</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M353" t="s" s="1">
+        <v>5157</v>
+      </c>
+      <c r="N353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O353" t="s" s="1">
+        <v>5158</v>
+      </c>
+      <c r="P353" t="s" s="1">
+        <v>5159</v>
+      </c>
+      <c r="Q353" t="s" s="1">
+        <v>5160</v>
+      </c>
+      <c r="R353" t="s" s="1">
+        <v>5161</v>
+      </c>
+      <c r="S353" t="s" s="1">
+        <v>5162</v>
+      </c>
+      <c r="T353" t="s" s="1">
+        <v>5155</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V353" t="s" s="1">
+        <v>5163</v>
+      </c>
+      <c r="W353" t="s" s="1">
+        <v>5164</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y353" t="s" s="1">
+        <v>5165</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC353" t="s" s="1">
+        <v>5166</v>
+      </c>
+      <c r="AD353" t="s" s="1">
+        <v>5167</v>
+      </c>
+      <c r="AE353" t="s" s="1">
+        <v>5168</v>
+      </c>
+      <c r="AF353" t="s" s="1">
         <v>5169</v>
-      </c>
-      <c r="D353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E353" t="s" s="1">
-        <v>5170</v>
-      </c>
-      <c r="F353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G353" t="s" s="1">
-        <v>5171</v>
-      </c>
-      <c r="H353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I353" t="s" s="1">
-        <v>5172</v>
-      </c>
-      <c r="J353" t="s" s="1">
-        <v>5173</v>
-      </c>
-      <c r="K353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M353" t="s" s="1">
-        <v>5174</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S353" t="s" s="1">
-        <v>5175</v>
-      </c>
-      <c r="T353" t="s" s="1">
-        <v>5176</v>
-      </c>
-      <c r="U353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V353" t="s" s="1">
-        <v>5177</v>
-      </c>
-      <c r="W353" t="s" s="1">
-        <v>5178</v>
-      </c>
-      <c r="X353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC353" t="s" s="1">
-        <v>5179</v>
-      </c>
-      <c r="AD353" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE353" t="s" s="1">
-        <v>5180</v>
-      </c>
-      <c r="AF353" t="s" s="1">
-        <v>5181</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="1">
-        <v>5182</v>
+        <v>5170</v>
       </c>
       <c r="B354" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C354" t="s" s="1">
+        <v>5171</v>
+      </c>
+      <c r="D354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E354" t="s" s="1">
+        <v>5172</v>
+      </c>
+      <c r="F354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G354" t="s" s="1">
+        <v>5173</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I354" t="s" s="1">
+        <v>5174</v>
+      </c>
+      <c r="J354" t="s" s="1">
+        <v>5175</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M354" t="s" s="1">
+        <v>5176</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S354" t="s" s="1">
+        <v>5177</v>
+      </c>
+      <c r="T354" t="s" s="1">
+        <v>5178</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V354" t="s" s="1">
+        <v>5179</v>
+      </c>
+      <c r="W354" t="s" s="1">
+        <v>5180</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC354" t="s" s="1">
+        <v>5181</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE354" t="s" s="1">
+        <v>5182</v>
+      </c>
+      <c r="AF354" t="s" s="1">
         <v>5183</v>
-      </c>
-      <c r="D354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E354" t="s" s="1">
-        <v>5184</v>
-      </c>
-      <c r="F354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G354" t="s" s="1">
-        <v>5185</v>
-      </c>
-      <c r="H354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I354" t="s" s="1">
-        <v>5186</v>
-      </c>
-      <c r="J354" t="s" s="1">
-        <v>5187</v>
-      </c>
-      <c r="K354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M354" t="s" s="1">
-        <v>5188</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O354" t="s" s="1">
-        <v>5189</v>
-      </c>
-      <c r="P354" t="s" s="1">
-        <v>5190</v>
-      </c>
-      <c r="Q354" t="s" s="1">
-        <v>5191</v>
-      </c>
-      <c r="R354" t="s" s="1">
-        <v>5192</v>
-      </c>
-      <c r="S354" t="s" s="1">
-        <v>5193</v>
-      </c>
-      <c r="T354" t="s" s="1">
-        <v>5194</v>
-      </c>
-      <c r="U354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V354" t="s" s="1">
-        <v>5195</v>
-      </c>
-      <c r="W354" t="s" s="1">
-        <v>5196</v>
-      </c>
-      <c r="X354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y354" t="s" s="1">
-        <v>5197</v>
-      </c>
-      <c r="Z354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB354" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC354" t="s" s="1">
-        <v>5198</v>
-      </c>
-      <c r="AD354" t="s" s="1">
-        <v>5199</v>
-      </c>
-      <c r="AE354" t="s" s="1">
-        <v>5200</v>
-      </c>
-      <c r="AF354" t="s" s="1">
-        <v>5201</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="1">
-        <v>5202</v>
+        <v>5184</v>
       </c>
       <c r="B355" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C355" t="s" s="1">
+        <v>5185</v>
+      </c>
+      <c r="D355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E355" t="s" s="1">
+        <v>5186</v>
+      </c>
+      <c r="F355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G355" t="s" s="1">
+        <v>5187</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I355" t="s" s="1">
+        <v>5188</v>
+      </c>
+      <c r="J355" t="s" s="1">
+        <v>5189</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M355" t="s" s="1">
+        <v>5190</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O355" t="s" s="1">
+        <v>5191</v>
+      </c>
+      <c r="P355" t="s" s="1">
+        <v>5192</v>
+      </c>
+      <c r="Q355" t="s" s="1">
+        <v>5193</v>
+      </c>
+      <c r="R355" t="s" s="1">
+        <v>5194</v>
+      </c>
+      <c r="S355" t="s" s="1">
+        <v>5195</v>
+      </c>
+      <c r="T355" t="s" s="1">
+        <v>5196</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V355" t="s" s="1">
+        <v>5197</v>
+      </c>
+      <c r="W355" t="s" s="1">
+        <v>5198</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y355" t="s" s="1">
+        <v>5199</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC355" t="s" s="1">
+        <v>5200</v>
+      </c>
+      <c r="AD355" t="s" s="1">
+        <v>5201</v>
+      </c>
+      <c r="AE355" t="s" s="1">
+        <v>5202</v>
+      </c>
+      <c r="AF355" t="s" s="1">
         <v>5203</v>
-      </c>
-      <c r="D355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="E355" t="s" s="1">
-        <v>5205</v>
-      </c>
-      <c r="F355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="G355" t="s" s="1">
-        <v>5206</v>
-      </c>
-      <c r="H355" t="s" s="1">
-        <v>5207</v>
-      </c>
-      <c r="I355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="J355" t="s" s="1">
-        <v>5208</v>
-      </c>
-      <c r="K355" t="s" s="1">
-        <v>5205</v>
-      </c>
-      <c r="L355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="M355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="N355" t="s" s="1">
-        <v>5209</v>
-      </c>
-      <c r="O355" t="s" s="1">
-        <v>5210</v>
-      </c>
-      <c r="P355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="Q355" t="s" s="1">
-        <v>5211</v>
-      </c>
-      <c r="R355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="S355" t="s" s="1">
-        <v>5212</v>
-      </c>
-      <c r="T355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="U355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="V355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="W355" t="s" s="1">
-        <v>5213</v>
-      </c>
-      <c r="X355" t="s" s="1">
-        <v>5205</v>
-      </c>
-      <c r="Y355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="Z355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="AA355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="AB355" t="s" s="1">
-        <v>5204</v>
-      </c>
-      <c r="AC355" t="s" s="1">
-        <v>5213</v>
-      </c>
-      <c r="AD355" t="s" s="1">
-        <v>5214</v>
-      </c>
-      <c r="AE355" t="s" s="1">
-        <v>5215</v>
-      </c>
-      <c r="AF355" t="s" s="1">
-        <v>5216</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="1">
-        <v>5217</v>
+        <v>5204</v>
       </c>
       <c r="B356" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C356" t="s" s="1">
+        <v>5205</v>
+      </c>
+      <c r="D356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="E356" t="s" s="1">
+        <v>5207</v>
+      </c>
+      <c r="F356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="G356" t="s" s="1">
+        <v>5208</v>
+      </c>
+      <c r="H356" t="s" s="1">
+        <v>5209</v>
+      </c>
+      <c r="I356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="J356" t="s" s="1">
+        <v>5210</v>
+      </c>
+      <c r="K356" t="s" s="1">
+        <v>5207</v>
+      </c>
+      <c r="L356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="M356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="N356" t="s" s="1">
+        <v>5211</v>
+      </c>
+      <c r="O356" t="s" s="1">
+        <v>5212</v>
+      </c>
+      <c r="P356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="Q356" t="s" s="1">
+        <v>5213</v>
+      </c>
+      <c r="R356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="S356" t="s" s="1">
+        <v>5214</v>
+      </c>
+      <c r="T356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="U356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="V356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="W356" t="s" s="1">
+        <v>5215</v>
+      </c>
+      <c r="X356" t="s" s="1">
+        <v>5207</v>
+      </c>
+      <c r="Y356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="Z356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="AA356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="AB356" t="s" s="1">
+        <v>5206</v>
+      </c>
+      <c r="AC356" t="s" s="1">
+        <v>5215</v>
+      </c>
+      <c r="AD356" t="s" s="1">
+        <v>5216</v>
+      </c>
+      <c r="AE356" t="s" s="1">
+        <v>5217</v>
+      </c>
+      <c r="AF356" t="s" s="1">
         <v>5218</v>
-      </c>
-      <c r="D356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E356" t="s" s="1">
-        <v>5219</v>
-      </c>
-      <c r="F356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G356" t="s" s="1">
-        <v>5220</v>
-      </c>
-      <c r="H356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I356" t="s" s="1">
-        <v>5221</v>
-      </c>
-      <c r="J356" t="s" s="1">
-        <v>5222</v>
-      </c>
-      <c r="K356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S356" t="s" s="1">
-        <v>5223</v>
-      </c>
-      <c r="T356" t="s" s="1">
-        <v>5224</v>
-      </c>
-      <c r="U356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V356" t="s" s="1">
-        <v>5225</v>
-      </c>
-      <c r="W356" t="s" s="1">
-        <v>5226</v>
-      </c>
-      <c r="X356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC356" t="s" s="1">
-        <v>5227</v>
-      </c>
-      <c r="AD356" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE356" t="s" s="1">
-        <v>5228</v>
-      </c>
-      <c r="AF356" t="s" s="1">
-        <v>5229</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="1">
-        <v>5230</v>
+        <v>5219</v>
       </c>
       <c r="B357" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C357" t="s" s="1">
+        <v>5220</v>
+      </c>
+      <c r="D357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E357" t="s" s="1">
+        <v>5221</v>
+      </c>
+      <c r="F357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G357" t="s" s="1">
+        <v>5222</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I357" t="s" s="1">
+        <v>5223</v>
+      </c>
+      <c r="J357" t="s" s="1">
+        <v>5224</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S357" t="s" s="1">
+        <v>5225</v>
+      </c>
+      <c r="T357" t="s" s="1">
+        <v>5226</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V357" t="s" s="1">
+        <v>5227</v>
+      </c>
+      <c r="W357" t="s" s="1">
+        <v>5228</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC357" t="s" s="1">
+        <v>5229</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE357" t="s" s="1">
+        <v>5230</v>
+      </c>
+      <c r="AF357" t="s" s="1">
         <v>5231</v>
-      </c>
-      <c r="D357" t="s" s="1">
-        <v>5232</v>
-      </c>
-      <c r="E357" t="s" s="1">
-        <v>5233</v>
-      </c>
-      <c r="F357" t="s" s="1">
-        <v>5234</v>
-      </c>
-      <c r="G357" t="s" s="1">
-        <v>5234</v>
-      </c>
-      <c r="H357" t="s" s="1">
-        <v>5235</v>
-      </c>
-      <c r="I357" t="s" s="1">
-        <v>5236</v>
-      </c>
-      <c r="J357" t="s" s="1">
-        <v>5237</v>
-      </c>
-      <c r="K357" t="s" s="1">
-        <v>5238</v>
-      </c>
-      <c r="L357" t="s" s="1">
-        <v>5239</v>
-      </c>
-      <c r="M357" t="s" s="1">
-        <v>5240</v>
-      </c>
-      <c r="N357" t="s" s="1">
-        <v>5241</v>
-      </c>
-      <c r="O357" t="s" s="1">
-        <v>5242</v>
-      </c>
-      <c r="P357" t="s" s="1">
-        <v>5243</v>
-      </c>
-      <c r="Q357" t="s" s="1">
-        <v>5234</v>
-      </c>
-      <c r="R357" t="s" s="1">
-        <v>5243</v>
-      </c>
-      <c r="S357" t="s" s="1">
-        <v>5244</v>
-      </c>
-      <c r="T357" t="s" s="1">
-        <v>5236</v>
-      </c>
-      <c r="U357" t="s" s="1">
-        <v>5236</v>
-      </c>
-      <c r="V357" t="s" s="1">
-        <v>5245</v>
-      </c>
-      <c r="W357" t="s" s="1">
-        <v>5246</v>
-      </c>
-      <c r="X357" t="s" s="1">
-        <v>5247</v>
-      </c>
-      <c r="Y357" t="s" s="1">
-        <v>5248</v>
-      </c>
-      <c r="Z357" t="s" s="1">
-        <v>5234</v>
-      </c>
-      <c r="AA357" t="s" s="1">
-        <v>5249</v>
-      </c>
-      <c r="AB357" t="s" s="1">
-        <v>5250</v>
-      </c>
-      <c r="AC357" t="s" s="1">
-        <v>5251</v>
-      </c>
-      <c r="AD357" t="s" s="1">
-        <v>5252</v>
-      </c>
-      <c r="AE357" t="s" s="1">
-        <v>5253</v>
-      </c>
-      <c r="AF357" t="s" s="1">
-        <v>5254</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="1">
-        <v>5255</v>
+        <v>5232</v>
       </c>
       <c r="B358" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C358" t="s" s="1">
+        <v>5233</v>
+      </c>
+      <c r="D358" t="s" s="1">
+        <v>5234</v>
+      </c>
+      <c r="E358" t="s" s="1">
+        <v>5235</v>
+      </c>
+      <c r="F358" t="s" s="1">
+        <v>5236</v>
+      </c>
+      <c r="G358" t="s" s="1">
+        <v>5236</v>
+      </c>
+      <c r="H358" t="s" s="1">
+        <v>5237</v>
+      </c>
+      <c r="I358" t="s" s="1">
+        <v>5238</v>
+      </c>
+      <c r="J358" t="s" s="1">
+        <v>5239</v>
+      </c>
+      <c r="K358" t="s" s="1">
+        <v>5240</v>
+      </c>
+      <c r="L358" t="s" s="1">
+        <v>5241</v>
+      </c>
+      <c r="M358" t="s" s="1">
+        <v>5242</v>
+      </c>
+      <c r="N358" t="s" s="1">
+        <v>5243</v>
+      </c>
+      <c r="O358" t="s" s="1">
+        <v>5244</v>
+      </c>
+      <c r="P358" t="s" s="1">
+        <v>5245</v>
+      </c>
+      <c r="Q358" t="s" s="1">
+        <v>5236</v>
+      </c>
+      <c r="R358" t="s" s="1">
+        <v>5245</v>
+      </c>
+      <c r="S358" t="s" s="1">
+        <v>5246</v>
+      </c>
+      <c r="T358" t="s" s="1">
+        <v>5238</v>
+      </c>
+      <c r="U358" t="s" s="1">
+        <v>5238</v>
+      </c>
+      <c r="V358" t="s" s="1">
+        <v>5247</v>
+      </c>
+      <c r="W358" t="s" s="1">
+        <v>5248</v>
+      </c>
+      <c r="X358" t="s" s="1">
+        <v>5249</v>
+      </c>
+      <c r="Y358" t="s" s="1">
+        <v>5250</v>
+      </c>
+      <c r="Z358" t="s" s="1">
+        <v>5236</v>
+      </c>
+      <c r="AA358" t="s" s="1">
+        <v>5251</v>
+      </c>
+      <c r="AB358" t="s" s="1">
+        <v>5252</v>
+      </c>
+      <c r="AC358" t="s" s="1">
+        <v>5253</v>
+      </c>
+      <c r="AD358" t="s" s="1">
+        <v>5254</v>
+      </c>
+      <c r="AE358" t="s" s="1">
+        <v>5255</v>
+      </c>
+      <c r="AF358" t="s" s="1">
         <v>5256</v>
-      </c>
-      <c r="D358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E358" t="s" s="1">
-        <v>5257</v>
-      </c>
-      <c r="F358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G358" t="s" s="1">
-        <v>5258</v>
-      </c>
-      <c r="H358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I358" t="s" s="1">
-        <v>5259</v>
-      </c>
-      <c r="J358" t="s" s="1">
-        <v>5260</v>
-      </c>
-      <c r="K358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M358" t="s" s="1">
-        <v>5261</v>
-      </c>
-      <c r="N358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q358" t="s" s="1">
-        <v>5262</v>
-      </c>
-      <c r="R358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S358" t="s" s="1">
-        <v>5263</v>
-      </c>
-      <c r="T358" t="s" s="1">
-        <v>5264</v>
-      </c>
-      <c r="U358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V358" t="s" s="1">
-        <v>5265</v>
-      </c>
-      <c r="W358" t="s" s="1">
-        <v>5266</v>
-      </c>
-      <c r="X358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC358" t="s" s="1">
-        <v>5267</v>
-      </c>
-      <c r="AD358" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE358" t="s" s="1">
-        <v>5268</v>
-      </c>
-      <c r="AF358" t="s" s="1">
-        <v>5269</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="1">
-        <v>5270</v>
+        <v>5257</v>
       </c>
       <c r="B359" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C359" t="s" s="1">
+        <v>5258</v>
+      </c>
+      <c r="D359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E359" t="s" s="1">
+        <v>5259</v>
+      </c>
+      <c r="F359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G359" t="s" s="1">
+        <v>5260</v>
+      </c>
+      <c r="H359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I359" t="s" s="1">
+        <v>5261</v>
+      </c>
+      <c r="J359" t="s" s="1">
+        <v>5262</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M359" t="s" s="1">
+        <v>5263</v>
+      </c>
+      <c r="N359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q359" t="s" s="1">
+        <v>5264</v>
+      </c>
+      <c r="R359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S359" t="s" s="1">
+        <v>5265</v>
+      </c>
+      <c r="T359" t="s" s="1">
+        <v>5266</v>
+      </c>
+      <c r="U359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V359" t="s" s="1">
+        <v>5267</v>
+      </c>
+      <c r="W359" t="s" s="1">
+        <v>5268</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC359" t="s" s="1">
+        <v>5269</v>
+      </c>
+      <c r="AD359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE359" t="s" s="1">
+        <v>5270</v>
+      </c>
+      <c r="AF359" t="s" s="1">
         <v>5271</v>
-      </c>
-      <c r="D359" t="s" s="1">
-        <v>5272</v>
-      </c>
-      <c r="E359" t="s" s="1">
-        <v>5273</v>
-      </c>
-      <c r="F359" t="s" s="1">
-        <v>5274</v>
-      </c>
-      <c r="G359" t="s" s="1">
-        <v>5275</v>
-      </c>
-      <c r="H359" t="s" s="1">
-        <v>5276</v>
-      </c>
-      <c r="I359" t="s" s="1">
-        <v>5277</v>
-      </c>
-      <c r="J359" t="s" s="1">
-        <v>4529</v>
-      </c>
-      <c r="K359" t="s" s="1">
-        <v>5278</v>
-      </c>
-      <c r="L359" t="s" s="1">
-        <v>5279</v>
-      </c>
-      <c r="M359" t="s" s="1">
-        <v>5280</v>
-      </c>
-      <c r="N359" t="s" s="1">
-        <v>5281</v>
-      </c>
-      <c r="O359" t="s" s="1">
-        <v>5282</v>
-      </c>
-      <c r="P359" t="s" s="1">
-        <v>5283</v>
-      </c>
-      <c r="Q359" t="s" s="1">
-        <v>5284</v>
-      </c>
-      <c r="R359" t="s" s="1">
-        <v>5285</v>
-      </c>
-      <c r="S359" t="s" s="1">
-        <v>5286</v>
-      </c>
-      <c r="T359" t="s" s="1">
-        <v>5287</v>
-      </c>
-      <c r="U359" t="s" s="1">
-        <v>5287</v>
-      </c>
-      <c r="V359" t="s" s="1">
-        <v>5288</v>
-      </c>
-      <c r="W359" t="s" s="1">
-        <v>5289</v>
-      </c>
-      <c r="X359" t="s" s="1">
-        <v>5290</v>
-      </c>
-      <c r="Y359" t="s" s="1">
-        <v>5291</v>
-      </c>
-      <c r="Z359" t="s" s="1">
-        <v>5292</v>
-      </c>
-      <c r="AA359" t="s" s="1">
-        <v>5293</v>
-      </c>
-      <c r="AB359" t="s" s="1">
-        <v>5294</v>
-      </c>
-      <c r="AC359" t="s" s="1">
-        <v>5295</v>
-      </c>
-      <c r="AD359" t="s" s="1">
-        <v>5296</v>
-      </c>
-      <c r="AE359" t="s" s="1">
-        <v>5297</v>
-      </c>
-      <c r="AF359" t="s" s="1">
-        <v>5298</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="1">
-        <v>5299</v>
+        <v>5272</v>
       </c>
       <c r="B360" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D360" t="s" s="3">
-        <v>63</v>
+      <c r="C360" t="s" s="1">
+        <v>5273</v>
+      </c>
+      <c r="D360" t="s" s="1">
+        <v>5274</v>
       </c>
       <c r="E360" t="s" s="1">
-        <v>4550</v>
-      </c>
-      <c r="F360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="H360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="J360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="K360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="L360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="M360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="N360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="O360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="P360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="R360" t="s" s="3">
-        <v>63</v>
+        <v>5275</v>
+      </c>
+      <c r="F360" t="s" s="1">
+        <v>5276</v>
+      </c>
+      <c r="G360" t="s" s="1">
+        <v>5277</v>
+      </c>
+      <c r="H360" t="s" s="1">
+        <v>5278</v>
+      </c>
+      <c r="I360" t="s" s="1">
+        <v>5279</v>
+      </c>
+      <c r="J360" t="s" s="1">
+        <v>4529</v>
+      </c>
+      <c r="K360" t="s" s="1">
+        <v>5280</v>
+      </c>
+      <c r="L360" t="s" s="1">
+        <v>5281</v>
+      </c>
+      <c r="M360" t="s" s="1">
+        <v>5282</v>
+      </c>
+      <c r="N360" t="s" s="1">
+        <v>5283</v>
+      </c>
+      <c r="O360" t="s" s="1">
+        <v>5284</v>
+      </c>
+      <c r="P360" t="s" s="1">
+        <v>5285</v>
+      </c>
+      <c r="Q360" t="s" s="1">
+        <v>5286</v>
+      </c>
+      <c r="R360" t="s" s="1">
+        <v>5287</v>
       </c>
       <c r="S360" t="s" s="1">
+        <v>5288</v>
+      </c>
+      <c r="T360" t="s" s="1">
+        <v>5289</v>
+      </c>
+      <c r="U360" t="s" s="1">
+        <v>5289</v>
+      </c>
+      <c r="V360" t="s" s="1">
+        <v>5290</v>
+      </c>
+      <c r="W360" t="s" s="1">
+        <v>5291</v>
+      </c>
+      <c r="X360" t="s" s="1">
+        <v>5292</v>
+      </c>
+      <c r="Y360" t="s" s="1">
+        <v>5293</v>
+      </c>
+      <c r="Z360" t="s" s="1">
+        <v>5294</v>
+      </c>
+      <c r="AA360" t="s" s="1">
+        <v>5295</v>
+      </c>
+      <c r="AB360" t="s" s="1">
+        <v>5296</v>
+      </c>
+      <c r="AC360" t="s" s="1">
+        <v>5297</v>
+      </c>
+      <c r="AD360" t="s" s="1">
+        <v>5298</v>
+      </c>
+      <c r="AE360" t="s" s="1">
+        <v>5299</v>
+      </c>
+      <c r="AF360" t="s" s="1">
         <v>5300</v>
-      </c>
-      <c r="T360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W360" t="s" s="1">
-        <v>5301</v>
-      </c>
-      <c r="X360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AA360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AB360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AC360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AD360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AE360" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF360" t="s" s="3">
-        <v>63</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="1">
-        <v>5302</v>
+        <v>5301</v>
       </c>
       <c r="B361" t="s" s="1">
         <v>33</v>
@@ -75259,7 +75265,7 @@
         <v>63</v>
       </c>
       <c r="E361" t="s" s="1">
-        <v>4554</v>
+        <v>4550</v>
       </c>
       <c r="F361" t="s" s="3">
         <v>63</v>
@@ -75301,19 +75307,19 @@
         <v>63</v>
       </c>
       <c r="S361" t="s" s="1">
+        <v>5302</v>
+      </c>
+      <c r="T361" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U361" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V361" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W361" t="s" s="1">
         <v>5303</v>
-      </c>
-      <c r="T361" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U361" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V361" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W361" t="s" s="3">
-        <v>63</v>
       </c>
       <c r="X361" t="s" s="3">
         <v>63</v>
@@ -75350,296 +75356,296 @@
       <c r="B362" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C362" t="s" s="1">
+      <c r="C362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E362" t="s" s="1">
+        <v>4554</v>
+      </c>
+      <c r="F362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S362" t="s" s="1">
         <v>5305</v>
       </c>
-      <c r="D362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E362" t="s" s="1">
-        <v>4550</v>
-      </c>
-      <c r="F362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G362" t="s" s="1">
-        <v>5306</v>
-      </c>
-      <c r="H362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I362" t="s" s="1">
-        <v>5307</v>
-      </c>
-      <c r="J362" t="s" s="1">
-        <v>5308</v>
-      </c>
-      <c r="K362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M362" t="s" s="1">
-        <v>5309</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q362" t="s" s="1">
-        <v>5310</v>
-      </c>
-      <c r="R362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S362" t="s" s="1">
-        <v>5311</v>
-      </c>
-      <c r="T362" t="s" s="1">
-        <v>5312</v>
-      </c>
-      <c r="U362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V362" t="s" s="1">
-        <v>5313</v>
-      </c>
-      <c r="W362" t="s" s="1">
-        <v>5314</v>
-      </c>
-      <c r="X362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC362" t="s" s="1">
-        <v>5315</v>
-      </c>
-      <c r="AD362" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE362" t="s" s="1">
-        <v>5316</v>
-      </c>
-      <c r="AF362" t="s" s="1">
-        <v>5317</v>
+      <c r="T362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE362" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF362" t="s" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="1">
-        <v>5318</v>
+        <v>5306</v>
       </c>
       <c r="B363" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C363" t="s" s="1">
+        <v>5307</v>
+      </c>
+      <c r="D363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E363" t="s" s="1">
+        <v>4550</v>
+      </c>
+      <c r="F363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G363" t="s" s="1">
+        <v>5308</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I363" t="s" s="1">
+        <v>5309</v>
+      </c>
+      <c r="J363" t="s" s="1">
+        <v>5310</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M363" t="s" s="1">
+        <v>5311</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q363" t="s" s="1">
+        <v>5312</v>
+      </c>
+      <c r="R363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S363" t="s" s="1">
+        <v>5313</v>
+      </c>
+      <c r="T363" t="s" s="1">
+        <v>5314</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V363" t="s" s="1">
+        <v>5315</v>
+      </c>
+      <c r="W363" t="s" s="1">
+        <v>5316</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC363" t="s" s="1">
+        <v>5317</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE363" t="s" s="1">
+        <v>5318</v>
+      </c>
+      <c r="AF363" t="s" s="1">
         <v>5319</v>
-      </c>
-      <c r="D363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="F363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G363" t="s" s="1">
-        <v>5320</v>
-      </c>
-      <c r="H363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I363" t="s" s="1">
-        <v>5321</v>
-      </c>
-      <c r="J363" t="s" s="1">
-        <v>5322</v>
-      </c>
-      <c r="K363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M363" t="s" s="1">
-        <v>5323</v>
-      </c>
-      <c r="N363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q363" t="s" s="1">
-        <v>5324</v>
-      </c>
-      <c r="R363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S363" t="s" s="1">
-        <v>5303</v>
-      </c>
-      <c r="T363" t="s" s="1">
-        <v>5325</v>
-      </c>
-      <c r="U363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V363" t="s" s="1">
-        <v>5326</v>
-      </c>
-      <c r="W363" t="s" s="1">
-        <v>5327</v>
-      </c>
-      <c r="X363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC363" t="s" s="1">
-        <v>5315</v>
-      </c>
-      <c r="AD363" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE363" t="s" s="1">
-        <v>5316</v>
-      </c>
-      <c r="AF363" t="s" s="1">
-        <v>5317</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="1">
-        <v>5328</v>
+        <v>5320</v>
       </c>
       <c r="B364" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="F364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="H364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="J364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="K364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="L364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="M364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="N364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="O364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="P364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="R364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="S364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="T364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="X364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AA364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AB364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AC364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AD364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AE364" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF364" t="s" s="3">
-        <v>63</v>
+      <c r="C364" t="s" s="1">
+        <v>5321</v>
+      </c>
+      <c r="D364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G364" t="s" s="1">
+        <v>5322</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I364" t="s" s="1">
+        <v>5323</v>
+      </c>
+      <c r="J364" t="s" s="1">
+        <v>5324</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M364" t="s" s="1">
+        <v>5325</v>
+      </c>
+      <c r="N364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q364" t="s" s="1">
+        <v>5326</v>
+      </c>
+      <c r="R364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S364" t="s" s="1">
+        <v>5305</v>
+      </c>
+      <c r="T364" t="s" s="1">
+        <v>5327</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V364" t="s" s="1">
+        <v>5328</v>
+      </c>
+      <c r="W364" t="s" s="1">
+        <v>5329</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC364" t="s" s="1">
+        <v>5317</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE364" t="s" s="1">
+        <v>5318</v>
+      </c>
+      <c r="AF364" t="s" s="1">
+        <v>5319</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="1">
-        <v>5329</v>
+        <v>5330</v>
       </c>
       <c r="B365" t="s" s="1">
         <v>33</v>
@@ -75737,1966 +75743,2064 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="1">
-        <v>5330</v>
+        <v>5331</v>
       </c>
       <c r="B366" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C366" t="s" s="1">
-        <v>5331</v>
-      </c>
-      <c r="D366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E366" t="s" s="1">
-        <v>5332</v>
-      </c>
-      <c r="F366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G366" t="s" s="1">
-        <v>5333</v>
-      </c>
-      <c r="H366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I366" t="s" s="1">
-        <v>5334</v>
-      </c>
-      <c r="J366" t="s" s="1">
-        <v>5335</v>
-      </c>
-      <c r="K366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M366" t="s" s="1">
-        <v>5336</v>
-      </c>
-      <c r="N366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q366" t="s" s="1">
-        <v>5337</v>
-      </c>
-      <c r="R366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S366" t="s" s="1">
-        <v>5338</v>
-      </c>
-      <c r="T366" t="s" s="1">
-        <v>5339</v>
-      </c>
-      <c r="U366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V366" t="s" s="1">
-        <v>5340</v>
-      </c>
-      <c r="W366" t="s" s="1">
-        <v>5341</v>
-      </c>
-      <c r="X366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC366" t="s" s="1">
-        <v>5342</v>
-      </c>
-      <c r="AD366" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE366" t="s" s="1">
-        <v>5343</v>
-      </c>
-      <c r="AF366" t="s" s="1">
-        <v>5344</v>
+      <c r="C366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE366" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF366" t="s" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="1">
-        <v>5345</v>
+        <v>5332</v>
       </c>
       <c r="B367" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C367" t="s" s="1">
+        <v>5333</v>
+      </c>
+      <c r="D367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E367" t="s" s="1">
+        <v>5334</v>
+      </c>
+      <c r="F367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G367" t="s" s="1">
+        <v>5335</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I367" t="s" s="1">
+        <v>5336</v>
+      </c>
+      <c r="J367" t="s" s="1">
+        <v>5337</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M367" t="s" s="1">
+        <v>5338</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q367" t="s" s="1">
+        <v>5339</v>
+      </c>
+      <c r="R367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S367" t="s" s="1">
+        <v>5340</v>
+      </c>
+      <c r="T367" t="s" s="1">
+        <v>5341</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V367" t="s" s="1">
+        <v>5342</v>
+      </c>
+      <c r="W367" t="s" s="1">
+        <v>5343</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC367" t="s" s="1">
+        <v>5344</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE367" t="s" s="1">
+        <v>5345</v>
+      </c>
+      <c r="AF367" t="s" s="1">
         <v>5346</v>
-      </c>
-      <c r="D367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E367" t="s" s="1">
-        <v>559</v>
-      </c>
-      <c r="F367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G367" t="s" s="1">
-        <v>5347</v>
-      </c>
-      <c r="H367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I367" t="s" s="1">
-        <v>5348</v>
-      </c>
-      <c r="J367" t="s" s="1">
-        <v>857</v>
-      </c>
-      <c r="K367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M367" t="s" s="1">
-        <v>860</v>
-      </c>
-      <c r="N367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q367" t="s" s="1">
-        <v>5349</v>
-      </c>
-      <c r="R367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S367" t="s" s="1">
-        <v>564</v>
-      </c>
-      <c r="T367" t="s" s="1">
-        <v>5350</v>
-      </c>
-      <c r="U367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V367" t="s" s="1">
-        <v>5351</v>
-      </c>
-      <c r="W367" t="s" s="1">
-        <v>4346</v>
-      </c>
-      <c r="X367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC367" t="s" s="1">
-        <v>5352</v>
-      </c>
-      <c r="AD367" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE367" t="s" s="1">
-        <v>5353</v>
-      </c>
-      <c r="AF367" t="s" s="1">
-        <v>5354</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="1">
-        <v>5355</v>
+        <v>5347</v>
       </c>
       <c r="B368" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C368" t="s" s="1">
+        <v>5348</v>
+      </c>
+      <c r="D368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E368" t="s" s="1">
+        <v>559</v>
+      </c>
+      <c r="F368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G368" t="s" s="1">
+        <v>5349</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I368" t="s" s="1">
+        <v>5350</v>
+      </c>
+      <c r="J368" t="s" s="1">
+        <v>857</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M368" t="s" s="1">
+        <v>860</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q368" t="s" s="1">
+        <v>5351</v>
+      </c>
+      <c r="R368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S368" t="s" s="1">
+        <v>564</v>
+      </c>
+      <c r="T368" t="s" s="1">
+        <v>5352</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V368" t="s" s="1">
+        <v>5353</v>
+      </c>
+      <c r="W368" t="s" s="1">
+        <v>4346</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC368" t="s" s="1">
+        <v>5354</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE368" t="s" s="1">
+        <v>5355</v>
+      </c>
+      <c r="AF368" t="s" s="1">
         <v>5356</v>
-      </c>
-      <c r="D368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E368" t="s" s="1">
-        <v>5357</v>
-      </c>
-      <c r="F368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G368" t="s" s="1">
-        <v>5358</v>
-      </c>
-      <c r="H368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I368" t="s" s="1">
-        <v>5359</v>
-      </c>
-      <c r="J368" t="s" s="1">
-        <v>5360</v>
-      </c>
-      <c r="K368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M368" t="s" s="1">
-        <v>5361</v>
-      </c>
-      <c r="N368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P368" t="s" s="1">
-        <v>5362</v>
-      </c>
-      <c r="Q368" t="s" s="1">
-        <v>5363</v>
-      </c>
-      <c r="R368" t="s" s="1">
-        <v>5364</v>
-      </c>
-      <c r="S368" t="s" s="1">
-        <v>5365</v>
-      </c>
-      <c r="T368" t="s" s="1">
-        <v>5366</v>
-      </c>
-      <c r="U368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V368" t="s" s="1">
-        <v>5367</v>
-      </c>
-      <c r="W368" t="s" s="1">
-        <v>5368</v>
-      </c>
-      <c r="X368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y368" t="s" s="1">
-        <v>5369</v>
-      </c>
-      <c r="Z368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB368" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC368" t="s" s="1">
-        <v>5370</v>
-      </c>
-      <c r="AD368" t="s" s="1">
-        <v>5371</v>
-      </c>
-      <c r="AE368" t="s" s="1">
-        <v>5372</v>
-      </c>
-      <c r="AF368" t="s" s="1">
-        <v>5373</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="1">
-        <v>5374</v>
+        <v>5357</v>
       </c>
       <c r="B369" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C369" t="s" s="1">
+        <v>5358</v>
+      </c>
+      <c r="D369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E369" t="s" s="1">
+        <v>5359</v>
+      </c>
+      <c r="F369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G369" t="s" s="1">
+        <v>5360</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I369" t="s" s="1">
+        <v>5361</v>
+      </c>
+      <c r="J369" t="s" s="1">
+        <v>5362</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M369" t="s" s="1">
+        <v>5363</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P369" t="s" s="1">
+        <v>5364</v>
+      </c>
+      <c r="Q369" t="s" s="1">
+        <v>5365</v>
+      </c>
+      <c r="R369" t="s" s="1">
+        <v>5366</v>
+      </c>
+      <c r="S369" t="s" s="1">
+        <v>5367</v>
+      </c>
+      <c r="T369" t="s" s="1">
+        <v>5368</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V369" t="s" s="1">
+        <v>5369</v>
+      </c>
+      <c r="W369" t="s" s="1">
+        <v>5370</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y369" t="s" s="1">
+        <v>5371</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC369" t="s" s="1">
+        <v>5372</v>
+      </c>
+      <c r="AD369" t="s" s="1">
+        <v>5373</v>
+      </c>
+      <c r="AE369" t="s" s="1">
+        <v>5374</v>
+      </c>
+      <c r="AF369" t="s" s="1">
         <v>5375</v>
-      </c>
-      <c r="D369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E369" t="s" s="1">
-        <v>5376</v>
-      </c>
-      <c r="F369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G369" t="s" s="1">
-        <v>5377</v>
-      </c>
-      <c r="H369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I369" t="s" s="1">
-        <v>5378</v>
-      </c>
-      <c r="J369" t="s" s="1">
-        <v>5379</v>
-      </c>
-      <c r="K369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M369" t="s" s="1">
-        <v>5380</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P369" t="s" s="1">
-        <v>5381</v>
-      </c>
-      <c r="Q369" t="s" s="1">
-        <v>5382</v>
-      </c>
-      <c r="R369" t="s" s="1">
-        <v>5383</v>
-      </c>
-      <c r="S369" t="s" s="1">
-        <v>5384</v>
-      </c>
-      <c r="T369" t="s" s="1">
-        <v>5385</v>
-      </c>
-      <c r="U369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V369" t="s" s="1">
-        <v>5386</v>
-      </c>
-      <c r="W369" t="s" s="1">
-        <v>5387</v>
-      </c>
-      <c r="X369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y369" t="s" s="1">
-        <v>5388</v>
-      </c>
-      <c r="Z369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB369" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC369" t="s" s="1">
-        <v>5389</v>
-      </c>
-      <c r="AD369" t="s" s="1">
-        <v>5390</v>
-      </c>
-      <c r="AE369" t="s" s="1">
-        <v>5391</v>
-      </c>
-      <c r="AF369" t="s" s="1">
-        <v>5392</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="1">
-        <v>5393</v>
+        <v>5376</v>
       </c>
       <c r="B370" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C370" t="s" s="1">
+        <v>5377</v>
+      </c>
+      <c r="D370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E370" t="s" s="1">
+        <v>5378</v>
+      </c>
+      <c r="F370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G370" t="s" s="1">
+        <v>5379</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I370" t="s" s="1">
+        <v>5380</v>
+      </c>
+      <c r="J370" t="s" s="1">
+        <v>5381</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M370" t="s" s="1">
+        <v>5382</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P370" t="s" s="1">
+        <v>5383</v>
+      </c>
+      <c r="Q370" t="s" s="1">
+        <v>5384</v>
+      </c>
+      <c r="R370" t="s" s="1">
+        <v>5385</v>
+      </c>
+      <c r="S370" t="s" s="1">
+        <v>5386</v>
+      </c>
+      <c r="T370" t="s" s="1">
+        <v>5387</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V370" t="s" s="1">
+        <v>5388</v>
+      </c>
+      <c r="W370" t="s" s="1">
+        <v>5389</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y370" t="s" s="1">
+        <v>5390</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC370" t="s" s="1">
+        <v>5391</v>
+      </c>
+      <c r="AD370" t="s" s="1">
+        <v>5392</v>
+      </c>
+      <c r="AE370" t="s" s="1">
+        <v>5393</v>
+      </c>
+      <c r="AF370" t="s" s="1">
         <v>5394</v>
-      </c>
-      <c r="D370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E370" t="s" s="1">
-        <v>5395</v>
-      </c>
-      <c r="F370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G370" t="s" s="1">
-        <v>5396</v>
-      </c>
-      <c r="H370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I370" t="s" s="1">
-        <v>5397</v>
-      </c>
-      <c r="J370" t="s" s="1">
-        <v>5398</v>
-      </c>
-      <c r="K370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M370" t="s" s="1">
-        <v>5399</v>
-      </c>
-      <c r="N370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S370" t="s" s="1">
-        <v>5400</v>
-      </c>
-      <c r="T370" t="s" s="1">
-        <v>5401</v>
-      </c>
-      <c r="U370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V370" t="s" s="1">
-        <v>5402</v>
-      </c>
-      <c r="W370" t="s" s="1">
-        <v>5403</v>
-      </c>
-      <c r="X370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC370" t="s" s="1">
-        <v>5404</v>
-      </c>
-      <c r="AD370" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE370" t="s" s="1">
-        <v>5405</v>
-      </c>
-      <c r="AF370" t="s" s="1">
-        <v>5406</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="1">
-        <v>5407</v>
+        <v>5395</v>
       </c>
       <c r="B371" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C371" t="s" s="1">
+        <v>5396</v>
+      </c>
+      <c r="D371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E371" t="s" s="1">
+        <v>5397</v>
+      </c>
+      <c r="F371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G371" t="s" s="1">
+        <v>5398</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I371" t="s" s="1">
+        <v>5399</v>
+      </c>
+      <c r="J371" t="s" s="1">
+        <v>5400</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M371" t="s" s="1">
+        <v>5401</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S371" t="s" s="1">
+        <v>5402</v>
+      </c>
+      <c r="T371" t="s" s="1">
+        <v>5403</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V371" t="s" s="1">
+        <v>5404</v>
+      </c>
+      <c r="W371" t="s" s="1">
+        <v>5405</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC371" t="s" s="1">
+        <v>5406</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE371" t="s" s="1">
+        <v>5407</v>
+      </c>
+      <c r="AF371" t="s" s="1">
         <v>5408</v>
-      </c>
-      <c r="D371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E371" t="s" s="1">
-        <v>5409</v>
-      </c>
-      <c r="F371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G371" t="s" s="1">
-        <v>5410</v>
-      </c>
-      <c r="H371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I371" t="s" s="1">
-        <v>5411</v>
-      </c>
-      <c r="J371" t="s" s="1">
-        <v>5412</v>
-      </c>
-      <c r="K371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M371" t="s" s="1">
-        <v>5413</v>
-      </c>
-      <c r="N371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q371" t="s" s="1">
-        <v>5414</v>
-      </c>
-      <c r="R371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S371" t="s" s="1">
-        <v>5415</v>
-      </c>
-      <c r="T371" t="s" s="1">
-        <v>5416</v>
-      </c>
-      <c r="U371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V371" t="s" s="1">
-        <v>5417</v>
-      </c>
-      <c r="W371" t="s" s="1">
-        <v>5418</v>
-      </c>
-      <c r="X371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC371" t="s" s="1">
-        <v>5419</v>
-      </c>
-      <c r="AD371" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE371" t="s" s="1">
-        <v>5420</v>
-      </c>
-      <c r="AF371" t="s" s="1">
-        <v>5421</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="1">
-        <v>5422</v>
+        <v>5409</v>
       </c>
       <c r="B372" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C372" t="s" s="1">
+        <v>5410</v>
+      </c>
+      <c r="D372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E372" t="s" s="1">
+        <v>5411</v>
+      </c>
+      <c r="F372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G372" t="s" s="1">
+        <v>5412</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I372" t="s" s="1">
+        <v>5413</v>
+      </c>
+      <c r="J372" t="s" s="1">
+        <v>5414</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M372" t="s" s="1">
+        <v>5415</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q372" t="s" s="1">
+        <v>5416</v>
+      </c>
+      <c r="R372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S372" t="s" s="1">
+        <v>5417</v>
+      </c>
+      <c r="T372" t="s" s="1">
+        <v>5418</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V372" t="s" s="1">
+        <v>5419</v>
+      </c>
+      <c r="W372" t="s" s="1">
+        <v>5420</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC372" t="s" s="1">
+        <v>5421</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE372" t="s" s="1">
+        <v>5422</v>
+      </c>
+      <c r="AF372" t="s" s="1">
         <v>5423</v>
-      </c>
-      <c r="D372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E372" t="s" s="1">
-        <v>5424</v>
-      </c>
-      <c r="F372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G372" t="s" s="1">
-        <v>5425</v>
-      </c>
-      <c r="H372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I372" t="s" s="1">
-        <v>5426</v>
-      </c>
-      <c r="J372" t="s" s="1">
-        <v>5427</v>
-      </c>
-      <c r="K372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M372" t="s" s="1">
-        <v>5428</v>
-      </c>
-      <c r="N372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S372" t="s" s="1">
-        <v>5429</v>
-      </c>
-      <c r="T372" t="s" s="1">
-        <v>5430</v>
-      </c>
-      <c r="U372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V372" t="s" s="1">
-        <v>5431</v>
-      </c>
-      <c r="W372" t="s" s="1">
-        <v>5432</v>
-      </c>
-      <c r="X372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC372" t="s" s="1">
-        <v>5433</v>
-      </c>
-      <c r="AD372" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE372" t="s" s="1">
-        <v>5434</v>
-      </c>
-      <c r="AF372" t="s" s="1">
-        <v>5435</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="1">
-        <v>5436</v>
+        <v>5424</v>
       </c>
       <c r="B373" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C373" t="s" s="1">
+        <v>5425</v>
+      </c>
+      <c r="D373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E373" t="s" s="1">
+        <v>5426</v>
+      </c>
+      <c r="F373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G373" t="s" s="1">
+        <v>5427</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I373" t="s" s="1">
+        <v>5428</v>
+      </c>
+      <c r="J373" t="s" s="1">
+        <v>5429</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M373" t="s" s="1">
+        <v>5430</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S373" t="s" s="1">
+        <v>5431</v>
+      </c>
+      <c r="T373" t="s" s="1">
+        <v>5432</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V373" t="s" s="1">
+        <v>5433</v>
+      </c>
+      <c r="W373" t="s" s="1">
+        <v>5434</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC373" t="s" s="1">
+        <v>5435</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE373" t="s" s="1">
+        <v>5436</v>
+      </c>
+      <c r="AF373" t="s" s="1">
         <v>5437</v>
-      </c>
-      <c r="D373" t="s" s="1">
-        <v>5438</v>
-      </c>
-      <c r="E373" t="s" s="1">
-        <v>5439</v>
-      </c>
-      <c r="F373" t="s" s="1">
-        <v>5440</v>
-      </c>
-      <c r="G373" t="s" s="1">
-        <v>5441</v>
-      </c>
-      <c r="H373" t="s" s="1">
-        <v>5442</v>
-      </c>
-      <c r="I373" t="s" s="1">
-        <v>5443</v>
-      </c>
-      <c r="J373" t="s" s="1">
-        <v>5444</v>
-      </c>
-      <c r="K373" t="s" s="1">
-        <v>5445</v>
-      </c>
-      <c r="L373" t="s" s="1">
-        <v>5446</v>
-      </c>
-      <c r="M373" t="s" s="1">
-        <v>5447</v>
-      </c>
-      <c r="N373" t="s" s="1">
-        <v>5448</v>
-      </c>
-      <c r="O373" t="s" s="1">
-        <v>5449</v>
-      </c>
-      <c r="P373" t="s" s="1">
-        <v>5450</v>
-      </c>
-      <c r="Q373" t="s" s="1">
-        <v>5451</v>
-      </c>
-      <c r="R373" t="s" s="1">
-        <v>5452</v>
-      </c>
-      <c r="S373" t="s" s="1">
-        <v>5453</v>
-      </c>
-      <c r="T373" t="s" s="1">
-        <v>5454</v>
-      </c>
-      <c r="U373" t="s" s="1">
-        <v>5454</v>
-      </c>
-      <c r="V373" t="s" s="1">
-        <v>5455</v>
-      </c>
-      <c r="W373" t="s" s="1">
-        <v>5456</v>
-      </c>
-      <c r="X373" t="s" s="1">
-        <v>5457</v>
-      </c>
-      <c r="Y373" t="s" s="1">
-        <v>5458</v>
-      </c>
-      <c r="Z373" t="s" s="1">
-        <v>5459</v>
-      </c>
-      <c r="AA373" t="s" s="1">
-        <v>5460</v>
-      </c>
-      <c r="AB373" t="s" s="1">
-        <v>5461</v>
-      </c>
-      <c r="AC373" t="s" s="1">
-        <v>5462</v>
-      </c>
-      <c r="AD373" t="s" s="1">
-        <v>5463</v>
-      </c>
-      <c r="AE373" t="s" s="1">
-        <v>5464</v>
-      </c>
-      <c r="AF373" t="s" s="1">
-        <v>5465</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="1">
-        <v>5466</v>
+        <v>5438</v>
       </c>
       <c r="B374" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C374" t="s" s="1">
+        <v>5439</v>
+      </c>
+      <c r="D374" t="s" s="1">
+        <v>5440</v>
+      </c>
+      <c r="E374" t="s" s="1">
+        <v>5441</v>
+      </c>
+      <c r="F374" t="s" s="1">
+        <v>5442</v>
+      </c>
+      <c r="G374" t="s" s="1">
+        <v>5443</v>
+      </c>
+      <c r="H374" t="s" s="1">
+        <v>5444</v>
+      </c>
+      <c r="I374" t="s" s="1">
+        <v>5445</v>
+      </c>
+      <c r="J374" t="s" s="1">
+        <v>5446</v>
+      </c>
+      <c r="K374" t="s" s="1">
+        <v>5447</v>
+      </c>
+      <c r="L374" t="s" s="1">
+        <v>5448</v>
+      </c>
+      <c r="M374" t="s" s="1">
+        <v>5449</v>
+      </c>
+      <c r="N374" t="s" s="1">
+        <v>5450</v>
+      </c>
+      <c r="O374" t="s" s="1">
+        <v>5451</v>
+      </c>
+      <c r="P374" t="s" s="1">
+        <v>5452</v>
+      </c>
+      <c r="Q374" t="s" s="1">
+        <v>5453</v>
+      </c>
+      <c r="R374" t="s" s="1">
+        <v>5454</v>
+      </c>
+      <c r="S374" t="s" s="1">
+        <v>5455</v>
+      </c>
+      <c r="T374" t="s" s="1">
+        <v>5456</v>
+      </c>
+      <c r="U374" t="s" s="1">
+        <v>5456</v>
+      </c>
+      <c r="V374" t="s" s="1">
+        <v>5457</v>
+      </c>
+      <c r="W374" t="s" s="1">
+        <v>5458</v>
+      </c>
+      <c r="X374" t="s" s="1">
+        <v>5459</v>
+      </c>
+      <c r="Y374" t="s" s="1">
+        <v>5460</v>
+      </c>
+      <c r="Z374" t="s" s="1">
+        <v>5461</v>
+      </c>
+      <c r="AA374" t="s" s="1">
+        <v>5462</v>
+      </c>
+      <c r="AB374" t="s" s="1">
+        <v>5463</v>
+      </c>
+      <c r="AC374" t="s" s="1">
+        <v>5464</v>
+      </c>
+      <c r="AD374" t="s" s="1">
+        <v>5465</v>
+      </c>
+      <c r="AE374" t="s" s="1">
+        <v>5466</v>
+      </c>
+      <c r="AF374" t="s" s="1">
         <v>5467</v>
-      </c>
-      <c r="D374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E374" t="s" s="1">
-        <v>5468</v>
-      </c>
-      <c r="F374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G374" t="s" s="1">
-        <v>5469</v>
-      </c>
-      <c r="H374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I374" t="s" s="1">
-        <v>3870</v>
-      </c>
-      <c r="J374" t="s" s="1">
-        <v>5470</v>
-      </c>
-      <c r="K374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M374" t="s" s="1">
-        <v>3868</v>
-      </c>
-      <c r="N374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S374" t="s" s="1">
-        <v>5471</v>
-      </c>
-      <c r="T374" t="s" s="1">
-        <v>5472</v>
-      </c>
-      <c r="U374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V374" t="s" s="1">
-        <v>5473</v>
-      </c>
-      <c r="W374" t="s" s="1">
-        <v>5474</v>
-      </c>
-      <c r="X374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC374" t="s" s="1">
-        <v>5475</v>
-      </c>
-      <c r="AD374" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE374" t="s" s="1">
-        <v>5476</v>
-      </c>
-      <c r="AF374" t="s" s="1">
-        <v>5477</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="1">
-        <v>5478</v>
+        <v>5468</v>
       </c>
       <c r="B375" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C375" t="s" s="1">
+        <v>5469</v>
+      </c>
+      <c r="D375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E375" t="s" s="1">
+        <v>5470</v>
+      </c>
+      <c r="F375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G375" t="s" s="1">
+        <v>5471</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I375" t="s" s="1">
+        <v>3870</v>
+      </c>
+      <c r="J375" t="s" s="1">
+        <v>5472</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M375" t="s" s="1">
+        <v>3868</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S375" t="s" s="1">
+        <v>5473</v>
+      </c>
+      <c r="T375" t="s" s="1">
+        <v>5474</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V375" t="s" s="1">
+        <v>5475</v>
+      </c>
+      <c r="W375" t="s" s="1">
+        <v>5476</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC375" t="s" s="1">
+        <v>5477</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE375" t="s" s="1">
+        <v>5478</v>
+      </c>
+      <c r="AF375" t="s" s="1">
         <v>5479</v>
-      </c>
-      <c r="D375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E375" t="s" s="1">
-        <v>2260</v>
-      </c>
-      <c r="F375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G375" t="s" s="1">
-        <v>5480</v>
-      </c>
-      <c r="H375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I375" t="s" s="1">
-        <v>5481</v>
-      </c>
-      <c r="J375" t="s" s="1">
-        <v>5482</v>
-      </c>
-      <c r="K375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M375" t="s" s="1">
-        <v>5483</v>
-      </c>
-      <c r="N375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q375" t="s" s="1">
-        <v>5484</v>
-      </c>
-      <c r="R375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S375" t="s" s="1">
-        <v>5485</v>
-      </c>
-      <c r="T375" t="s" s="1">
-        <v>5486</v>
-      </c>
-      <c r="U375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V375" t="s" s="1">
-        <v>5487</v>
-      </c>
-      <c r="W375" t="s" s="1">
-        <v>5488</v>
-      </c>
-      <c r="X375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC375" t="s" s="1">
-        <v>5489</v>
-      </c>
-      <c r="AD375" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE375" t="s" s="1">
-        <v>5490</v>
-      </c>
-      <c r="AF375" t="s" s="1">
-        <v>5491</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="1">
-        <v>5492</v>
+        <v>5480</v>
       </c>
       <c r="B376" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C376" t="s" s="1">
+        <v>5481</v>
+      </c>
+      <c r="D376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E376" t="s" s="1">
+        <v>2260</v>
+      </c>
+      <c r="F376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G376" t="s" s="1">
+        <v>5482</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I376" t="s" s="1">
+        <v>5483</v>
+      </c>
+      <c r="J376" t="s" s="1">
+        <v>5484</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M376" t="s" s="1">
+        <v>5485</v>
+      </c>
+      <c r="N376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q376" t="s" s="1">
+        <v>5486</v>
+      </c>
+      <c r="R376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S376" t="s" s="1">
+        <v>5487</v>
+      </c>
+      <c r="T376" t="s" s="1">
+        <v>5488</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V376" t="s" s="1">
+        <v>5489</v>
+      </c>
+      <c r="W376" t="s" s="1">
+        <v>5490</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC376" t="s" s="1">
+        <v>5491</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE376" t="s" s="1">
+        <v>5492</v>
+      </c>
+      <c r="AF376" t="s" s="1">
         <v>5493</v>
-      </c>
-      <c r="D376" t="s" s="1">
-        <v>5494</v>
-      </c>
-      <c r="E376" t="s" s="1">
-        <v>5495</v>
-      </c>
-      <c r="F376" t="s" s="1">
-        <v>5496</v>
-      </c>
-      <c r="G376" t="s" s="1">
-        <v>5497</v>
-      </c>
-      <c r="H376" t="s" s="1">
-        <v>5498</v>
-      </c>
-      <c r="I376" t="s" s="1">
-        <v>5499</v>
-      </c>
-      <c r="J376" t="s" s="1">
-        <v>5500</v>
-      </c>
-      <c r="K376" t="s" s="1">
-        <v>5501</v>
-      </c>
-      <c r="L376" t="s" s="1">
-        <v>5502</v>
-      </c>
-      <c r="M376" t="s" s="1">
-        <v>5499</v>
-      </c>
-      <c r="N376" t="s" s="1">
-        <v>5503</v>
-      </c>
-      <c r="O376" t="s" s="1">
-        <v>5504</v>
-      </c>
-      <c r="P376" t="s" s="1">
-        <v>5496</v>
-      </c>
-      <c r="Q376" t="s" s="1">
-        <v>5505</v>
-      </c>
-      <c r="R376" t="s" s="1">
-        <v>5496</v>
-      </c>
-      <c r="S376" t="s" s="1">
-        <v>5506</v>
-      </c>
-      <c r="T376" t="s" s="1">
-        <v>5507</v>
-      </c>
-      <c r="U376" t="s" s="1">
-        <v>5507</v>
-      </c>
-      <c r="V376" t="s" s="1">
-        <v>5508</v>
-      </c>
-      <c r="W376" t="s" s="1">
-        <v>5509</v>
-      </c>
-      <c r="X376" t="s" s="1">
-        <v>5510</v>
-      </c>
-      <c r="Y376" t="s" s="1">
-        <v>5511</v>
-      </c>
-      <c r="Z376" t="s" s="1">
-        <v>5512</v>
-      </c>
-      <c r="AA376" t="s" s="1">
-        <v>5513</v>
-      </c>
-      <c r="AB376" t="s" s="1">
-        <v>5514</v>
-      </c>
-      <c r="AC376" t="s" s="1">
-        <v>5515</v>
-      </c>
-      <c r="AD376" t="s" s="1">
-        <v>5516</v>
-      </c>
-      <c r="AE376" t="s" s="1">
-        <v>5517</v>
-      </c>
-      <c r="AF376" t="s" s="1">
-        <v>5518</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="1">
-        <v>5519</v>
+        <v>5494</v>
       </c>
       <c r="B377" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C377" t="s" s="1">
+        <v>5495</v>
+      </c>
+      <c r="D377" t="s" s="1">
+        <v>5496</v>
+      </c>
+      <c r="E377" t="s" s="1">
+        <v>5497</v>
+      </c>
+      <c r="F377" t="s" s="1">
+        <v>5498</v>
+      </c>
+      <c r="G377" t="s" s="1">
+        <v>5499</v>
+      </c>
+      <c r="H377" t="s" s="1">
+        <v>5500</v>
+      </c>
+      <c r="I377" t="s" s="1">
+        <v>5501</v>
+      </c>
+      <c r="J377" t="s" s="1">
+        <v>5502</v>
+      </c>
+      <c r="K377" t="s" s="1">
+        <v>5503</v>
+      </c>
+      <c r="L377" t="s" s="1">
+        <v>5504</v>
+      </c>
+      <c r="M377" t="s" s="1">
+        <v>5501</v>
+      </c>
+      <c r="N377" t="s" s="1">
+        <v>5505</v>
+      </c>
+      <c r="O377" t="s" s="1">
+        <v>5506</v>
+      </c>
+      <c r="P377" t="s" s="1">
+        <v>5498</v>
+      </c>
+      <c r="Q377" t="s" s="1">
+        <v>5507</v>
+      </c>
+      <c r="R377" t="s" s="1">
+        <v>5498</v>
+      </c>
+      <c r="S377" t="s" s="1">
+        <v>5508</v>
+      </c>
+      <c r="T377" t="s" s="1">
+        <v>5509</v>
+      </c>
+      <c r="U377" t="s" s="1">
+        <v>5509</v>
+      </c>
+      <c r="V377" t="s" s="1">
+        <v>5510</v>
+      </c>
+      <c r="W377" t="s" s="1">
+        <v>5511</v>
+      </c>
+      <c r="X377" t="s" s="1">
+        <v>5512</v>
+      </c>
+      <c r="Y377" t="s" s="1">
+        <v>5513</v>
+      </c>
+      <c r="Z377" t="s" s="1">
+        <v>5514</v>
+      </c>
+      <c r="AA377" t="s" s="1">
+        <v>5515</v>
+      </c>
+      <c r="AB377" t="s" s="1">
+        <v>5516</v>
+      </c>
+      <c r="AC377" t="s" s="1">
+        <v>5517</v>
+      </c>
+      <c r="AD377" t="s" s="1">
+        <v>5518</v>
+      </c>
+      <c r="AE377" t="s" s="1">
+        <v>5519</v>
+      </c>
+      <c r="AF377" t="s" s="1">
         <v>5520</v>
-      </c>
-      <c r="D377" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E377" t="s" s="1">
-        <v>5521</v>
-      </c>
-      <c r="F377" t="s" s="1">
-        <v>5522</v>
-      </c>
-      <c r="G377" t="s" s="1">
-        <v>5523</v>
-      </c>
-      <c r="H377" t="s" s="1">
-        <v>5524</v>
-      </c>
-      <c r="I377" t="s" s="1">
-        <v>5525</v>
-      </c>
-      <c r="J377" t="s" s="1">
-        <v>5526</v>
-      </c>
-      <c r="K377" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L377" t="s" s="1">
-        <v>5527</v>
-      </c>
-      <c r="M377" t="s" s="1">
-        <v>5528</v>
-      </c>
-      <c r="N377" t="s" s="1">
-        <v>5529</v>
-      </c>
-      <c r="O377" t="s" s="1">
-        <v>5530</v>
-      </c>
-      <c r="P377" t="s" s="1">
-        <v>5522</v>
-      </c>
-      <c r="Q377" t="s" s="1">
-        <v>5531</v>
-      </c>
-      <c r="R377" t="s" s="1">
-        <v>5532</v>
-      </c>
-      <c r="S377" t="s" s="1">
-        <v>5533</v>
-      </c>
-      <c r="T377" t="s" s="1">
-        <v>5534</v>
-      </c>
-      <c r="U377" t="s" s="1">
-        <v>5535</v>
-      </c>
-      <c r="V377" t="s" s="1">
-        <v>5536</v>
-      </c>
-      <c r="W377" t="s" s="1">
-        <v>5537</v>
-      </c>
-      <c r="X377" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y377" t="s" s="1">
-        <v>5538</v>
-      </c>
-      <c r="Z377" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA377" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB377" t="s" s="1">
-        <v>5539</v>
-      </c>
-      <c r="AC377" t="s" s="1">
-        <v>5540</v>
-      </c>
-      <c r="AD377" t="s" s="1">
-        <v>5541</v>
-      </c>
-      <c r="AE377" t="s" s="1">
-        <v>5542</v>
-      </c>
-      <c r="AF377" t="s" s="1">
-        <v>5543</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s" s="1">
-        <v>5544</v>
+        <v>5521</v>
       </c>
       <c r="B378" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C378" t="s" s="1">
+        <v>5522</v>
+      </c>
+      <c r="D378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E378" t="s" s="1">
+        <v>5523</v>
+      </c>
+      <c r="F378" t="s" s="1">
+        <v>5524</v>
+      </c>
+      <c r="G378" t="s" s="1">
+        <v>5525</v>
+      </c>
+      <c r="H378" t="s" s="1">
+        <v>5526</v>
+      </c>
+      <c r="I378" t="s" s="1">
+        <v>5527</v>
+      </c>
+      <c r="J378" t="s" s="1">
+        <v>5528</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L378" t="s" s="1">
+        <v>5529</v>
+      </c>
+      <c r="M378" t="s" s="1">
+        <v>5530</v>
+      </c>
+      <c r="N378" t="s" s="1">
+        <v>5531</v>
+      </c>
+      <c r="O378" t="s" s="1">
+        <v>5532</v>
+      </c>
+      <c r="P378" t="s" s="1">
+        <v>5524</v>
+      </c>
+      <c r="Q378" t="s" s="1">
+        <v>5533</v>
+      </c>
+      <c r="R378" t="s" s="1">
+        <v>5534</v>
+      </c>
+      <c r="S378" t="s" s="1">
+        <v>5535</v>
+      </c>
+      <c r="T378" t="s" s="1">
+        <v>5536</v>
+      </c>
+      <c r="U378" t="s" s="1">
+        <v>5537</v>
+      </c>
+      <c r="V378" t="s" s="1">
+        <v>5538</v>
+      </c>
+      <c r="W378" t="s" s="1">
+        <v>5539</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y378" t="s" s="1">
+        <v>5540</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB378" t="s" s="1">
+        <v>5541</v>
+      </c>
+      <c r="AC378" t="s" s="1">
+        <v>5542</v>
+      </c>
+      <c r="AD378" t="s" s="1">
+        <v>5543</v>
+      </c>
+      <c r="AE378" t="s" s="1">
+        <v>5544</v>
+      </c>
+      <c r="AF378" t="s" s="1">
         <v>5545</v>
-      </c>
-      <c r="D378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E378" t="s" s="1">
-        <v>5546</v>
-      </c>
-      <c r="F378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G378" t="s" s="1">
-        <v>5547</v>
-      </c>
-      <c r="H378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I378" t="s" s="1">
-        <v>5548</v>
-      </c>
-      <c r="J378" t="s" s="1">
-        <v>5549</v>
-      </c>
-      <c r="K378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="T378" t="s" s="1">
-        <v>5550</v>
-      </c>
-      <c r="U378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC378" t="s" s="1">
-        <v>5551</v>
-      </c>
-      <c r="AD378" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE378" t="s" s="1">
-        <v>5552</v>
-      </c>
-      <c r="AF378" t="s" s="2">
-        <v>63</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="1">
-        <v>5553</v>
+        <v>5546</v>
       </c>
       <c r="B379" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C379" t="s" s="1">
+        <v>5547</v>
+      </c>
+      <c r="D379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E379" t="s" s="1">
+        <v>5548</v>
+      </c>
+      <c r="F379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G379" t="s" s="1">
+        <v>5549</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I379" t="s" s="1">
+        <v>5550</v>
+      </c>
+      <c r="J379" t="s" s="1">
+        <v>5551</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T379" t="s" s="1">
+        <v>5552</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC379" t="s" s="1">
+        <v>5553</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE379" t="s" s="1">
         <v>5554</v>
       </c>
-      <c r="D379" t="s" s="1">
-        <v>5555</v>
-      </c>
-      <c r="E379" t="s" s="1">
-        <v>5556</v>
-      </c>
-      <c r="F379" t="s" s="1">
-        <v>5557</v>
-      </c>
-      <c r="G379" t="s" s="1">
-        <v>5558</v>
-      </c>
-      <c r="H379" t="s" s="1">
-        <v>5559</v>
-      </c>
-      <c r="I379" t="s" s="1">
-        <v>5560</v>
-      </c>
-      <c r="J379" t="s" s="1">
-        <v>5561</v>
-      </c>
-      <c r="K379" t="s" s="1">
-        <v>5562</v>
-      </c>
-      <c r="L379" t="s" s="1">
-        <v>5563</v>
-      </c>
-      <c r="M379" t="s" s="1">
-        <v>5564</v>
-      </c>
-      <c r="N379" t="s" s="1">
-        <v>5565</v>
-      </c>
-      <c r="O379" t="s" s="1">
-        <v>5566</v>
-      </c>
-      <c r="P379" t="s" s="1">
-        <v>5567</v>
-      </c>
-      <c r="Q379" t="s" s="1">
-        <v>5568</v>
-      </c>
-      <c r="R379" t="s" s="1">
-        <v>5569</v>
-      </c>
-      <c r="S379" t="s" s="1">
-        <v>5570</v>
-      </c>
-      <c r="T379" t="s" s="1">
-        <v>5571</v>
-      </c>
-      <c r="U379" t="s" s="1">
-        <v>5571</v>
-      </c>
-      <c r="V379" t="s" s="1">
-        <v>5572</v>
-      </c>
-      <c r="W379" t="s" s="1">
-        <v>5573</v>
-      </c>
-      <c r="X379" t="s" s="1">
-        <v>5574</v>
-      </c>
-      <c r="Y379" t="s" s="1">
-        <v>5575</v>
-      </c>
-      <c r="Z379" t="s" s="1">
-        <v>5576</v>
-      </c>
-      <c r="AA379" t="s" s="1">
-        <v>5577</v>
-      </c>
-      <c r="AB379" t="s" s="1">
-        <v>5578</v>
-      </c>
-      <c r="AC379" t="s" s="1">
-        <v>5579</v>
-      </c>
-      <c r="AD379" t="s" s="1">
-        <v>5580</v>
-      </c>
-      <c r="AE379" t="s" s="1">
-        <v>5581</v>
-      </c>
-      <c r="AF379" t="s" s="1">
-        <v>5582</v>
+      <c r="AF379" t="s" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="1">
-        <v>5583</v>
+        <v>5555</v>
       </c>
       <c r="B380" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C380" t="s" s="1">
+        <v>5556</v>
+      </c>
+      <c r="D380" t="s" s="1">
+        <v>5557</v>
+      </c>
+      <c r="E380" t="s" s="1">
+        <v>5558</v>
+      </c>
+      <c r="F380" t="s" s="1">
+        <v>5559</v>
+      </c>
+      <c r="G380" t="s" s="1">
+        <v>5560</v>
+      </c>
+      <c r="H380" t="s" s="1">
+        <v>5561</v>
+      </c>
+      <c r="I380" t="s" s="1">
+        <v>5562</v>
+      </c>
+      <c r="J380" t="s" s="1">
+        <v>5563</v>
+      </c>
+      <c r="K380" t="s" s="1">
+        <v>5564</v>
+      </c>
+      <c r="L380" t="s" s="1">
+        <v>5565</v>
+      </c>
+      <c r="M380" t="s" s="1">
+        <v>5566</v>
+      </c>
+      <c r="N380" t="s" s="1">
+        <v>5567</v>
+      </c>
+      <c r="O380" t="s" s="1">
+        <v>5568</v>
+      </c>
+      <c r="P380" t="s" s="1">
+        <v>5569</v>
+      </c>
+      <c r="Q380" t="s" s="1">
+        <v>5570</v>
+      </c>
+      <c r="R380" t="s" s="1">
+        <v>5571</v>
+      </c>
+      <c r="S380" t="s" s="1">
+        <v>5572</v>
+      </c>
+      <c r="T380" t="s" s="1">
+        <v>5573</v>
+      </c>
+      <c r="U380" t="s" s="1">
+        <v>5573</v>
+      </c>
+      <c r="V380" t="s" s="1">
+        <v>5574</v>
+      </c>
+      <c r="W380" t="s" s="1">
+        <v>5575</v>
+      </c>
+      <c r="X380" t="s" s="1">
+        <v>5576</v>
+      </c>
+      <c r="Y380" t="s" s="1">
+        <v>5577</v>
+      </c>
+      <c r="Z380" t="s" s="1">
+        <v>5578</v>
+      </c>
+      <c r="AA380" t="s" s="1">
+        <v>5579</v>
+      </c>
+      <c r="AB380" t="s" s="1">
+        <v>5580</v>
+      </c>
+      <c r="AC380" t="s" s="1">
+        <v>5581</v>
+      </c>
+      <c r="AD380" t="s" s="1">
+        <v>5582</v>
+      </c>
+      <c r="AE380" t="s" s="1">
+        <v>5583</v>
+      </c>
+      <c r="AF380" t="s" s="1">
         <v>5584</v>
-      </c>
-      <c r="D380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E380" t="s" s="1">
-        <v>5585</v>
-      </c>
-      <c r="F380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G380" t="s" s="1">
-        <v>5586</v>
-      </c>
-      <c r="H380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I380" t="s" s="1">
-        <v>5587</v>
-      </c>
-      <c r="J380" t="s" s="1">
-        <v>5588</v>
-      </c>
-      <c r="K380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M380" t="s" s="1">
-        <v>5589</v>
-      </c>
-      <c r="N380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q380" t="s" s="1">
-        <v>5590</v>
-      </c>
-      <c r="R380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S380" t="s" s="1">
-        <v>5591</v>
-      </c>
-      <c r="T380" t="s" s="1">
-        <v>5592</v>
-      </c>
-      <c r="U380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V380" t="s" s="1">
-        <v>5593</v>
-      </c>
-      <c r="W380" t="s" s="1">
-        <v>5594</v>
-      </c>
-      <c r="X380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC380" t="s" s="1">
-        <v>5595</v>
-      </c>
-      <c r="AD380" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE380" t="s" s="1">
-        <v>5596</v>
-      </c>
-      <c r="AF380" t="s" s="1">
-        <v>5597</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="1">
-        <v>5598</v>
+        <v>5585</v>
       </c>
       <c r="B381" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C381" t="s" s="1">
+        <v>5586</v>
+      </c>
+      <c r="D381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E381" t="s" s="1">
+        <v>5587</v>
+      </c>
+      <c r="F381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G381" t="s" s="1">
+        <v>5588</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I381" t="s" s="1">
+        <v>5589</v>
+      </c>
+      <c r="J381" t="s" s="1">
+        <v>5590</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M381" t="s" s="1">
+        <v>5591</v>
+      </c>
+      <c r="N381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q381" t="s" s="1">
+        <v>5592</v>
+      </c>
+      <c r="R381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S381" t="s" s="1">
+        <v>5593</v>
+      </c>
+      <c r="T381" t="s" s="1">
+        <v>5594</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V381" t="s" s="1">
+        <v>5595</v>
+      </c>
+      <c r="W381" t="s" s="1">
+        <v>5596</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC381" t="s" s="1">
+        <v>5597</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE381" t="s" s="1">
+        <v>5598</v>
+      </c>
+      <c r="AF381" t="s" s="1">
         <v>5599</v>
-      </c>
-      <c r="D381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E381" t="s" s="1">
-        <v>5600</v>
-      </c>
-      <c r="F381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G381" t="s" s="1">
-        <v>5601</v>
-      </c>
-      <c r="H381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I381" t="s" s="1">
-        <v>5602</v>
-      </c>
-      <c r="J381" t="s" s="1">
-        <v>5603</v>
-      </c>
-      <c r="K381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M381" t="s" s="1">
-        <v>5604</v>
-      </c>
-      <c r="N381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S381" t="s" s="1">
-        <v>5605</v>
-      </c>
-      <c r="T381" t="s" s="1">
-        <v>5602</v>
-      </c>
-      <c r="U381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V381" t="s" s="1">
-        <v>5606</v>
-      </c>
-      <c r="W381" t="s" s="1">
-        <v>5607</v>
-      </c>
-      <c r="X381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC381" t="s" s="1">
-        <v>5608</v>
-      </c>
-      <c r="AD381" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE381" t="s" s="1">
-        <v>5609</v>
-      </c>
-      <c r="AF381" t="s" s="1">
-        <v>5610</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="1">
-        <v>5611</v>
+        <v>5600</v>
       </c>
       <c r="B382" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C382" t="s" s="1">
+        <v>5601</v>
+      </c>
+      <c r="D382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E382" t="s" s="1">
+        <v>5602</v>
+      </c>
+      <c r="F382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G382" t="s" s="1">
+        <v>5603</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I382" t="s" s="1">
+        <v>5604</v>
+      </c>
+      <c r="J382" t="s" s="1">
+        <v>5605</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M382" t="s" s="1">
+        <v>5606</v>
+      </c>
+      <c r="N382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S382" t="s" s="1">
+        <v>5607</v>
+      </c>
+      <c r="T382" t="s" s="1">
+        <v>5604</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V382" t="s" s="1">
+        <v>5608</v>
+      </c>
+      <c r="W382" t="s" s="1">
+        <v>5609</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC382" t="s" s="1">
+        <v>5610</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE382" t="s" s="1">
+        <v>5611</v>
+      </c>
+      <c r="AF382" t="s" s="1">
         <v>5612</v>
-      </c>
-      <c r="D382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E382" t="s" s="1">
-        <v>5613</v>
-      </c>
-      <c r="F382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G382" t="s" s="1">
-        <v>5614</v>
-      </c>
-      <c r="H382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I382" t="s" s="1">
-        <v>5615</v>
-      </c>
-      <c r="J382" t="s" s="1">
-        <v>5616</v>
-      </c>
-      <c r="K382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M382" t="s" s="1">
-        <v>5617</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q382" t="s" s="1">
-        <v>5618</v>
-      </c>
-      <c r="R382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S382" t="s" s="1">
-        <v>5619</v>
-      </c>
-      <c r="T382" t="s" s="1">
-        <v>5620</v>
-      </c>
-      <c r="U382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V382" t="s" s="1">
-        <v>5621</v>
-      </c>
-      <c r="W382" t="s" s="1">
-        <v>5622</v>
-      </c>
-      <c r="X382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC382" t="s" s="1">
-        <v>5623</v>
-      </c>
-      <c r="AD382" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE382" t="s" s="1">
-        <v>5624</v>
-      </c>
-      <c r="AF382" t="s" s="1">
-        <v>5625</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="1">
-        <v>5626</v>
+        <v>5613</v>
       </c>
       <c r="B383" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C383" t="s" s="1">
+        <v>5614</v>
+      </c>
+      <c r="D383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E383" t="s" s="1">
+        <v>5615</v>
+      </c>
+      <c r="F383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G383" t="s" s="1">
+        <v>5616</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I383" t="s" s="1">
+        <v>5617</v>
+      </c>
+      <c r="J383" t="s" s="1">
+        <v>5618</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M383" t="s" s="1">
+        <v>5619</v>
+      </c>
+      <c r="N383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q383" t="s" s="1">
+        <v>5620</v>
+      </c>
+      <c r="R383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S383" t="s" s="1">
+        <v>5621</v>
+      </c>
+      <c r="T383" t="s" s="1">
+        <v>5622</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V383" t="s" s="1">
+        <v>5623</v>
+      </c>
+      <c r="W383" t="s" s="1">
+        <v>5624</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC383" t="s" s="1">
+        <v>5625</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE383" t="s" s="1">
+        <v>5626</v>
+      </c>
+      <c r="AF383" t="s" s="1">
         <v>5627</v>
-      </c>
-      <c r="D383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E383" t="s" s="1">
-        <v>5628</v>
-      </c>
-      <c r="F383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G383" t="s" s="1">
-        <v>5629</v>
-      </c>
-      <c r="H383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I383" t="s" s="1">
-        <v>5630</v>
-      </c>
-      <c r="J383" t="s" s="1">
-        <v>5631</v>
-      </c>
-      <c r="K383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M383" t="s" s="1">
-        <v>5632</v>
-      </c>
-      <c r="N383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S383" t="s" s="1">
-        <v>5633</v>
-      </c>
-      <c r="T383" t="s" s="1">
-        <v>5634</v>
-      </c>
-      <c r="U383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V383" t="s" s="1">
-        <v>5630</v>
-      </c>
-      <c r="W383" t="s" s="1">
-        <v>5635</v>
-      </c>
-      <c r="X383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC383" t="s" s="1">
-        <v>5636</v>
-      </c>
-      <c r="AD383" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE383" t="s" s="1">
-        <v>5637</v>
-      </c>
-      <c r="AF383" t="s" s="1">
-        <v>5638</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="1">
-        <v>5639</v>
+        <v>5628</v>
       </c>
       <c r="B384" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C384" t="s" s="1">
+        <v>5629</v>
+      </c>
+      <c r="D384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E384" t="s" s="1">
+        <v>5630</v>
+      </c>
+      <c r="F384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G384" t="s" s="1">
+        <v>5631</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I384" t="s" s="1">
+        <v>5632</v>
+      </c>
+      <c r="J384" t="s" s="1">
+        <v>5633</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M384" t="s" s="1">
+        <v>5634</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S384" t="s" s="1">
+        <v>5635</v>
+      </c>
+      <c r="T384" t="s" s="1">
+        <v>5636</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V384" t="s" s="1">
+        <v>5632</v>
+      </c>
+      <c r="W384" t="s" s="1">
+        <v>5637</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC384" t="s" s="1">
+        <v>5638</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE384" t="s" s="1">
+        <v>5639</v>
+      </c>
+      <c r="AF384" t="s" s="1">
         <v>5640</v>
-      </c>
-      <c r="D384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E384" t="s" s="1">
-        <v>5641</v>
-      </c>
-      <c r="F384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G384" t="s" s="1">
-        <v>5642</v>
-      </c>
-      <c r="H384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I384" t="s" s="1">
-        <v>5643</v>
-      </c>
-      <c r="J384" t="s" s="1">
-        <v>5644</v>
-      </c>
-      <c r="K384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M384" t="s" s="1">
-        <v>5645</v>
-      </c>
-      <c r="N384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S384" t="s" s="1">
-        <v>5646</v>
-      </c>
-      <c r="T384" t="s" s="1">
-        <v>5647</v>
-      </c>
-      <c r="U384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V384" t="s" s="1">
-        <v>5648</v>
-      </c>
-      <c r="W384" t="s" s="1">
-        <v>5649</v>
-      </c>
-      <c r="X384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC384" t="s" s="1">
-        <v>5650</v>
-      </c>
-      <c r="AD384" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE384" t="s" s="1">
-        <v>5651</v>
-      </c>
-      <c r="AF384" t="s" s="1">
-        <v>5652</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="1">
-        <v>5653</v>
+        <v>5641</v>
       </c>
       <c r="B385" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C385" t="s" s="1">
+        <v>5642</v>
+      </c>
+      <c r="D385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E385" t="s" s="1">
+        <v>5643</v>
+      </c>
+      <c r="F385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G385" t="s" s="1">
+        <v>5644</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I385" t="s" s="1">
+        <v>5645</v>
+      </c>
+      <c r="J385" t="s" s="1">
+        <v>5646</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M385" t="s" s="1">
+        <v>5647</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S385" t="s" s="1">
+        <v>5648</v>
+      </c>
+      <c r="T385" t="s" s="1">
+        <v>5649</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V385" t="s" s="1">
+        <v>5650</v>
+      </c>
+      <c r="W385" t="s" s="1">
+        <v>5651</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC385" t="s" s="1">
+        <v>5652</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE385" t="s" s="1">
+        <v>5653</v>
+      </c>
+      <c r="AF385" t="s" s="1">
         <v>5654</v>
       </c>
-      <c r="D385" t="s" s="1">
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="1">
         <v>5655</v>
       </c>
-      <c r="E385" t="s" s="1">
+      <c r="B386" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C386" t="s" s="1">
         <v>5656</v>
       </c>
-      <c r="F385" t="s" s="1">
+      <c r="D386" t="s" s="1">
         <v>5657</v>
       </c>
-      <c r="G385" t="s" s="1">
+      <c r="E386" t="s" s="1">
         <v>5658</v>
       </c>
-      <c r="H385" t="s" s="1">
+      <c r="F386" t="s" s="1">
         <v>5659</v>
       </c>
-      <c r="I385" t="s" s="1">
+      <c r="G386" t="s" s="1">
         <v>5660</v>
       </c>
-      <c r="J385" t="s" s="1">
+      <c r="H386" t="s" s="1">
         <v>5661</v>
       </c>
-      <c r="K385" t="s" s="1">
+      <c r="I386" t="s" s="1">
         <v>5662</v>
       </c>
-      <c r="L385" t="s" s="1">
+      <c r="J386" t="s" s="1">
         <v>5663</v>
       </c>
-      <c r="M385" t="s" s="1">
+      <c r="K386" t="s" s="1">
         <v>5664</v>
       </c>
-      <c r="N385" t="s" s="1">
+      <c r="L386" t="s" s="1">
         <v>5665</v>
       </c>
-      <c r="O385" t="s" s="1">
+      <c r="M386" t="s" s="1">
         <v>5666</v>
       </c>
-      <c r="P385" t="s" s="1">
+      <c r="N386" t="s" s="1">
         <v>5667</v>
       </c>
-      <c r="Q385" t="s" s="1">
+      <c r="O386" t="s" s="1">
         <v>5668</v>
       </c>
-      <c r="R385" t="s" s="1">
+      <c r="P386" t="s" s="1">
         <v>5669</v>
       </c>
-      <c r="S385" t="s" s="1">
+      <c r="Q386" t="s" s="1">
         <v>5670</v>
       </c>
-      <c r="T385" t="s" s="1">
+      <c r="R386" t="s" s="1">
         <v>5671</v>
       </c>
-      <c r="U385" t="s" s="1">
+      <c r="S386" t="s" s="1">
         <v>5672</v>
       </c>
-      <c r="V385" t="s" s="1">
+      <c r="T386" t="s" s="1">
         <v>5673</v>
       </c>
-      <c r="W385" t="s" s="1">
+      <c r="U386" t="s" s="1">
         <v>5674</v>
       </c>
-      <c r="X385" t="s" s="1">
+      <c r="V386" t="s" s="1">
         <v>5675</v>
       </c>
-      <c r="Y385" t="s" s="1">
+      <c r="W386" t="s" s="1">
         <v>5676</v>
       </c>
-      <c r="Z385" t="s" s="1">
+      <c r="X386" t="s" s="1">
         <v>5677</v>
       </c>
-      <c r="AA385" t="s" s="1">
+      <c r="Y386" t="s" s="1">
         <v>5678</v>
       </c>
-      <c r="AB385" t="s" s="1">
+      <c r="Z386" t="s" s="1">
         <v>5679</v>
       </c>
-      <c r="AC385" t="s" s="1">
+      <c r="AA386" t="s" s="1">
         <v>5680</v>
       </c>
-      <c r="AD385" t="s" s="1">
+      <c r="AB386" t="s" s="1">
         <v>5681</v>
       </c>
-      <c r="AE385" t="s" s="1">
+      <c r="AC386" t="s" s="1">
         <v>5682</v>
       </c>
-      <c r="AF385" t="s" s="1">
+      <c r="AD386" t="s" s="1">
         <v>5683</v>
+      </c>
+      <c r="AE386" t="s" s="1">
+        <v>5684</v>
+      </c>
+      <c r="AF386" t="s" s="1">
+        <v>5685</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG385"/>
+  <autoFilter ref="A1:AG386"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
